--- a/helpfiles/tentamenuitslag_Engels.xlsx
+++ b/helpfiles/tentamenuitslag_Engels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\vu-toetsanalyse\helpfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vu-toetsanalyse-master\helpfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -122,6 +122,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -195,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -216,7 +217,6 @@
       <alignment textRotation="30"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -224,12 +224,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment textRotation="30"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -243,9 +263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +303,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -355,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,7 +555,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1961,7 +1981,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="15"/>
+      <c r="A141" s="14"/>
       <c r="D141" s="3" t="str">
         <f>VLOOKUP(C141,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -1972,7 +1992,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="15"/>
+      <c r="A142" s="14"/>
       <c r="D142" s="3" t="str">
         <f>VLOOKUP(C142,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -1983,7 +2003,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="15"/>
+      <c r="A143" s="14"/>
       <c r="D143" s="3" t="str">
         <f>VLOOKUP(C143,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -1994,7 +2014,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="15"/>
+      <c r="A144" s="14"/>
       <c r="D144" s="3" t="str">
         <f>VLOOKUP(C144,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2005,7 +2025,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="15"/>
+      <c r="A145" s="14"/>
       <c r="D145" s="3" t="str">
         <f>VLOOKUP(C145,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2016,7 +2036,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="15"/>
+      <c r="A146" s="14"/>
       <c r="D146" s="3" t="str">
         <f>VLOOKUP(C146,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2027,7 +2047,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="15"/>
+      <c r="A147" s="14"/>
       <c r="D147" s="3" t="str">
         <f>VLOOKUP(C147,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2038,7 +2058,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="15"/>
+      <c r="A148" s="14"/>
       <c r="D148" s="3" t="str">
         <f>VLOOKUP(C148,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2049,7 +2069,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="15"/>
+      <c r="A149" s="14"/>
       <c r="D149" s="3" t="str">
         <f>VLOOKUP(C149,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2060,7 +2080,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="15"/>
+      <c r="A150" s="14"/>
       <c r="D150" s="3" t="str">
         <f>VLOOKUP(C150,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2071,7 +2091,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="15"/>
+      <c r="A151" s="14"/>
       <c r="D151" s="3" t="str">
         <f>VLOOKUP(C151,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2082,7 +2102,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="15"/>
+      <c r="A152" s="14"/>
       <c r="D152" s="3" t="str">
         <f>VLOOKUP(C152,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2093,7 +2113,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="15"/>
+      <c r="A153" s="14"/>
       <c r="D153" s="3" t="str">
         <f>VLOOKUP(C153,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2104,7 +2124,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="15"/>
+      <c r="A154" s="14"/>
       <c r="D154" s="3" t="str">
         <f>VLOOKUP(C154,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2115,7 +2135,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="15"/>
+      <c r="A155" s="14"/>
       <c r="D155" s="3" t="str">
         <f>VLOOKUP(C155,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2126,7 +2146,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="15"/>
+      <c r="A156" s="14"/>
       <c r="D156" s="3" t="str">
         <f>VLOOKUP(C156,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2137,7 +2157,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="15"/>
+      <c r="A157" s="14"/>
       <c r="D157" s="3" t="str">
         <f>VLOOKUP(C157,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2148,7 +2168,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="15"/>
+      <c r="A158" s="14"/>
       <c r="D158" s="3" t="str">
         <f>VLOOKUP(C158,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2159,7 +2179,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="15"/>
+      <c r="A159" s="14"/>
       <c r="D159" s="3" t="str">
         <f>VLOOKUP(C159,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2170,7 +2190,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="15"/>
+      <c r="A160" s="14"/>
       <c r="D160" s="3" t="str">
         <f>VLOOKUP(C160,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2181,7 +2201,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="15"/>
+      <c r="A161" s="14"/>
       <c r="D161" s="3" t="str">
         <f>VLOOKUP(C161,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2192,7 +2212,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="15"/>
+      <c r="A162" s="14"/>
       <c r="D162" s="3" t="str">
         <f>VLOOKUP(C162,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2203,7 +2223,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="15"/>
+      <c r="A163" s="14"/>
       <c r="D163" s="3" t="str">
         <f>VLOOKUP(C163,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2214,7 +2234,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="15"/>
+      <c r="A164" s="14"/>
       <c r="D164" s="3" t="str">
         <f>VLOOKUP(C164,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2225,7 +2245,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="15"/>
+      <c r="A165" s="14"/>
       <c r="D165" s="3" t="str">
         <f>VLOOKUP(C165,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2236,7 +2256,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="15"/>
+      <c r="A166" s="14"/>
       <c r="D166" s="3" t="str">
         <f>VLOOKUP(C166,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2247,7 +2267,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="15"/>
+      <c r="A167" s="14"/>
       <c r="D167" s="3" t="str">
         <f>VLOOKUP(C167,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2258,7 +2278,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="15"/>
+      <c r="A168" s="14"/>
       <c r="D168" s="3" t="str">
         <f>VLOOKUP(C168,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2269,7 +2289,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="15"/>
+      <c r="A169" s="14"/>
       <c r="D169" s="3" t="str">
         <f>VLOOKUP(C169,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2280,7 +2300,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="15"/>
+      <c r="A170" s="14"/>
       <c r="D170" s="3" t="str">
         <f>VLOOKUP(C170,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2291,7 +2311,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="15"/>
+      <c r="A171" s="14"/>
       <c r="D171" s="3" t="str">
         <f>VLOOKUP(C171,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2302,7 +2322,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="15"/>
+      <c r="A172" s="14"/>
       <c r="D172" s="3" t="str">
         <f>VLOOKUP(C172,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2313,7 +2333,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="15"/>
+      <c r="A173" s="14"/>
       <c r="D173" s="3" t="str">
         <f>VLOOKUP(C173,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2324,7 +2344,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="15"/>
+      <c r="A174" s="14"/>
       <c r="D174" s="3" t="str">
         <f>VLOOKUP(C174,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2335,7 +2355,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="15"/>
+      <c r="A175" s="14"/>
       <c r="D175" s="3" t="str">
         <f>VLOOKUP(C175,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2346,7 +2366,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="15"/>
+      <c r="A176" s="14"/>
       <c r="D176" s="3" t="str">
         <f>VLOOKUP(C176,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2357,7 +2377,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="15"/>
+      <c r="A177" s="14"/>
       <c r="D177" s="3" t="str">
         <f>VLOOKUP(C177,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2368,7 +2388,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="15"/>
+      <c r="A178" s="14"/>
       <c r="D178" s="3" t="str">
         <f>VLOOKUP(C178,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2379,7 +2399,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="15"/>
+      <c r="A179" s="14"/>
       <c r="D179" s="3" t="str">
         <f>VLOOKUP(C179,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2390,7 +2410,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="15"/>
+      <c r="A180" s="14"/>
       <c r="D180" s="3" t="str">
         <f>VLOOKUP(C180,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2401,7 +2421,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="15"/>
+      <c r="A181" s="14"/>
       <c r="D181" s="3" t="str">
         <f>VLOOKUP(C181,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2412,7 +2432,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="15"/>
+      <c r="A182" s="14"/>
       <c r="D182" s="3" t="str">
         <f>VLOOKUP(C182,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2423,7 +2443,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="15"/>
+      <c r="A183" s="14"/>
       <c r="D183" s="3" t="str">
         <f>VLOOKUP(C183,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2434,7 +2454,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="15"/>
+      <c r="A184" s="14"/>
       <c r="D184" s="3" t="str">
         <f>VLOOKUP(C184,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2445,7 +2465,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="15"/>
+      <c r="A185" s="14"/>
       <c r="D185" s="3" t="str">
         <f>VLOOKUP(C185,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2456,7 +2476,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="15"/>
+      <c r="A186" s="14"/>
       <c r="D186" s="3" t="str">
         <f>VLOOKUP(C186,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2467,7 +2487,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="15"/>
+      <c r="A187" s="14"/>
       <c r="D187" s="3" t="str">
         <f>VLOOKUP(C187,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2478,7 +2498,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="15"/>
+      <c r="A188" s="14"/>
       <c r="D188" s="3" t="str">
         <f>VLOOKUP(C188,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2489,7 +2509,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="15"/>
+      <c r="A189" s="14"/>
       <c r="D189" s="3" t="str">
         <f>VLOOKUP(C189,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2500,7 +2520,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="15"/>
+      <c r="A190" s="14"/>
       <c r="D190" s="3" t="str">
         <f>VLOOKUP(C190,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2511,7 +2531,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="15"/>
+      <c r="A191" s="14"/>
       <c r="D191" s="3" t="str">
         <f>VLOOKUP(C191,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2522,7 +2542,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="15"/>
+      <c r="A192" s="14"/>
       <c r="D192" s="3" t="str">
         <f>VLOOKUP(C192,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2533,7 +2553,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="15"/>
+      <c r="A193" s="14"/>
       <c r="D193" s="3" t="str">
         <f>VLOOKUP(C193,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2544,7 +2564,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="15"/>
+      <c r="A194" s="14"/>
       <c r="D194" s="3" t="str">
         <f>VLOOKUP(C194,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2555,7 +2575,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="15"/>
+      <c r="A195" s="14"/>
       <c r="D195" s="3" t="str">
         <f>VLOOKUP(C195,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2566,7 +2586,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="15"/>
+      <c r="A196" s="14"/>
       <c r="D196" s="3" t="str">
         <f>VLOOKUP(C196,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2577,7 +2597,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="15"/>
+      <c r="A197" s="14"/>
       <c r="D197" s="3" t="str">
         <f>VLOOKUP(C197,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2588,7 +2608,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="15"/>
+      <c r="A198" s="14"/>
       <c r="D198" s="3" t="str">
         <f>VLOOKUP(C198,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2599,7 +2619,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="15"/>
+      <c r="A199" s="14"/>
       <c r="D199" s="3" t="str">
         <f>VLOOKUP(C199,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2610,7 +2630,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="15"/>
+      <c r="A200" s="14"/>
       <c r="D200" s="3" t="str">
         <f>VLOOKUP(C200,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2621,7 +2641,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="15"/>
+      <c r="A201" s="14"/>
       <c r="D201" s="3" t="str">
         <f>VLOOKUP(C201,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2632,7 +2652,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="15"/>
+      <c r="A202" s="14"/>
       <c r="D202" s="3" t="str">
         <f>VLOOKUP(C202,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2643,7 +2663,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="15"/>
+      <c r="A203" s="14"/>
       <c r="D203" s="3" t="str">
         <f>VLOOKUP(C203,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2654,7 +2674,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="15"/>
+      <c r="A204" s="14"/>
       <c r="D204" s="3" t="str">
         <f>VLOOKUP(C204,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2665,7 +2685,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="15"/>
+      <c r="A205" s="14"/>
       <c r="D205" s="3" t="str">
         <f>VLOOKUP(C205,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2676,7 +2696,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="15"/>
+      <c r="A206" s="14"/>
       <c r="D206" s="3" t="str">
         <f>VLOOKUP(C206,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2687,7 +2707,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="15"/>
+      <c r="A207" s="14"/>
       <c r="D207" s="3" t="str">
         <f>VLOOKUP(C207,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2698,7 +2718,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="15"/>
+      <c r="A208" s="14"/>
       <c r="D208" s="3" t="str">
         <f>VLOOKUP(C208,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2709,7 +2729,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="15"/>
+      <c r="A209" s="14"/>
       <c r="D209" s="3" t="str">
         <f>VLOOKUP(C209,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2720,7 +2740,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="15"/>
+      <c r="A210" s="14"/>
       <c r="D210" s="3" t="str">
         <f>VLOOKUP(C210,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2731,7 +2751,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="15"/>
+      <c r="A211" s="14"/>
       <c r="D211" s="3" t="str">
         <f>VLOOKUP(C211,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2742,7 +2762,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="15"/>
+      <c r="A212" s="14"/>
       <c r="D212" s="3" t="str">
         <f>VLOOKUP(C212,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2753,7 +2773,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="15"/>
+      <c r="A213" s="14"/>
       <c r="D213" s="3" t="str">
         <f>VLOOKUP(C213,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2764,7 +2784,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="15"/>
+      <c r="A214" s="14"/>
       <c r="D214" s="3" t="str">
         <f>VLOOKUP(C214,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2775,7 +2795,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="15"/>
+      <c r="A215" s="14"/>
       <c r="D215" s="3" t="str">
         <f>VLOOKUP(C215,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2786,7 +2806,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="15"/>
+      <c r="A216" s="14"/>
       <c r="D216" s="3" t="str">
         <f>VLOOKUP(C216,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2797,7 +2817,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="15"/>
+      <c r="A217" s="14"/>
       <c r="D217" s="3" t="str">
         <f>VLOOKUP(C217,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2808,7 +2828,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="15"/>
+      <c r="A218" s="14"/>
       <c r="D218" s="3" t="str">
         <f>VLOOKUP(C218,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2819,7 +2839,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="15"/>
+      <c r="A219" s="14"/>
       <c r="D219" s="3" t="str">
         <f>VLOOKUP(C219,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2830,7 +2850,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="15"/>
+      <c r="A220" s="14"/>
       <c r="D220" s="3" t="str">
         <f>VLOOKUP(C220,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2841,7 +2861,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="15"/>
+      <c r="A221" s="14"/>
       <c r="D221" s="3" t="str">
         <f>VLOOKUP(C221,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2852,7 +2872,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="15"/>
+      <c r="A222" s="14"/>
       <c r="D222" s="3" t="str">
         <f>VLOOKUP(C222,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2863,7 +2883,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="15"/>
+      <c r="A223" s="14"/>
       <c r="D223" s="3" t="str">
         <f>VLOOKUP(C223,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2874,7 +2894,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="15"/>
+      <c r="A224" s="14"/>
       <c r="D224" s="3" t="str">
         <f>VLOOKUP(C224,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2885,7 +2905,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="15"/>
+      <c r="A225" s="14"/>
       <c r="D225" s="3" t="str">
         <f>VLOOKUP(C225,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2896,7 +2916,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="15"/>
+      <c r="A226" s="14"/>
       <c r="D226" s="3" t="str">
         <f>VLOOKUP(C226,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2907,7 +2927,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="15"/>
+      <c r="A227" s="14"/>
       <c r="D227" s="3" t="str">
         <f>VLOOKUP(C227,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2918,7 +2938,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="15"/>
+      <c r="A228" s="14"/>
       <c r="D228" s="3" t="str">
         <f>VLOOKUP(C228,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2929,7 +2949,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="15"/>
+      <c r="A229" s="14"/>
       <c r="D229" s="3" t="str">
         <f>VLOOKUP(C229,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2940,7 +2960,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="15"/>
+      <c r="A230" s="14"/>
       <c r="D230" s="3" t="str">
         <f>VLOOKUP(C230,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2951,7 +2971,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="15"/>
+      <c r="A231" s="14"/>
       <c r="D231" s="3" t="str">
         <f>VLOOKUP(C231,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2962,7 +2982,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="15"/>
+      <c r="A232" s="14"/>
       <c r="D232" s="3" t="str">
         <f>VLOOKUP(C232,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2973,7 +2993,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="15"/>
+      <c r="A233" s="14"/>
       <c r="D233" s="3" t="str">
         <f>VLOOKUP(C233,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2984,7 +3004,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="15"/>
+      <c r="A234" s="14"/>
       <c r="D234" s="3" t="str">
         <f>VLOOKUP(C234,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -2995,7 +3015,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="15"/>
+      <c r="A235" s="14"/>
       <c r="D235" s="3" t="str">
         <f>VLOOKUP(C235,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3006,7 +3026,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="15"/>
+      <c r="A236" s="14"/>
       <c r="D236" s="3" t="str">
         <f>VLOOKUP(C236,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3017,7 +3037,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="15"/>
+      <c r="A237" s="14"/>
       <c r="D237" s="3" t="str">
         <f>VLOOKUP(C237,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3028,7 +3048,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="15"/>
+      <c r="A238" s="14"/>
       <c r="D238" s="3" t="str">
         <f>VLOOKUP(C238,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3039,7 +3059,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="15"/>
+      <c r="A239" s="14"/>
       <c r="D239" s="3" t="str">
         <f>VLOOKUP(C239,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3050,7 +3070,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="15"/>
+      <c r="A240" s="14"/>
       <c r="D240" s="3" t="str">
         <f>VLOOKUP(C240,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3061,7 +3081,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="15"/>
+      <c r="A241" s="14"/>
       <c r="D241" s="3" t="str">
         <f>VLOOKUP(C241,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3072,7 +3092,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="15"/>
+      <c r="A242" s="14"/>
       <c r="D242" s="3" t="str">
         <f>VLOOKUP(C242,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3083,7 +3103,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="15"/>
+      <c r="A243" s="14"/>
       <c r="D243" s="3" t="str">
         <f>VLOOKUP(C243,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3094,7 +3114,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="15"/>
+      <c r="A244" s="14"/>
       <c r="D244" s="3" t="str">
         <f>VLOOKUP(C244,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3105,7 +3125,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="15"/>
+      <c r="A245" s="14"/>
       <c r="D245" s="3" t="str">
         <f>VLOOKUP(C245,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3116,7 +3136,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="15"/>
+      <c r="A246" s="14"/>
       <c r="D246" s="3" t="str">
         <f>VLOOKUP(C246,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3127,8 +3147,8 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="15"/>
-      <c r="B247" s="15"/>
+      <c r="A247" s="14"/>
+      <c r="B247" s="14"/>
       <c r="D247" s="3" t="str">
         <f>VLOOKUP(C247,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3139,8 +3159,8 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="15"/>
-      <c r="B248" s="15"/>
+      <c r="A248" s="14"/>
+      <c r="B248" s="14"/>
       <c r="D248" s="3" t="str">
         <f>VLOOKUP(C248,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3151,8 +3171,8 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="15"/>
-      <c r="B249" s="15"/>
+      <c r="A249" s="14"/>
+      <c r="B249" s="14"/>
       <c r="D249" s="3" t="str">
         <f>VLOOKUP(C249,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3163,8 +3183,8 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="15"/>
-      <c r="B250" s="15"/>
+      <c r="A250" s="14"/>
+      <c r="B250" s="14"/>
       <c r="D250" s="3" t="str">
         <f>VLOOKUP(C250,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3175,8 +3195,8 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="15"/>
-      <c r="B251" s="15"/>
+      <c r="A251" s="14"/>
+      <c r="B251" s="14"/>
       <c r="D251" s="3" t="str">
         <f>VLOOKUP(C251,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3187,8 +3207,8 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="15"/>
-      <c r="B252" s="15"/>
+      <c r="A252" s="14"/>
+      <c r="B252" s="14"/>
       <c r="D252" s="3" t="str">
         <f>VLOOKUP(C252,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3199,8 +3219,8 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="15"/>
-      <c r="B253" s="15"/>
+      <c r="A253" s="14"/>
+      <c r="B253" s="14"/>
       <c r="D253" s="3" t="str">
         <f>VLOOKUP(C253,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3211,8 +3231,8 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="15"/>
-      <c r="B254" s="15"/>
+      <c r="A254" s="14"/>
+      <c r="B254" s="14"/>
       <c r="D254" s="3" t="str">
         <f>VLOOKUP(C254,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3223,8 +3243,8 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="15"/>
-      <c r="B255" s="15"/>
+      <c r="A255" s="14"/>
+      <c r="B255" s="14"/>
       <c r="D255" s="3" t="str">
         <f>VLOOKUP(C255,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3235,8 +3255,8 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="15"/>
-      <c r="B256" s="15"/>
+      <c r="A256" s="14"/>
+      <c r="B256" s="14"/>
       <c r="D256" s="3" t="str">
         <f>VLOOKUP(C256,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3247,8 +3267,8 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="15"/>
-      <c r="B257" s="15"/>
+      <c r="A257" s="14"/>
+      <c r="B257" s="14"/>
       <c r="D257" s="3" t="str">
         <f>VLOOKUP(C257,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3259,8 +3279,8 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="15"/>
-      <c r="B258" s="15"/>
+      <c r="A258" s="14"/>
+      <c r="B258" s="14"/>
       <c r="D258" s="3" t="str">
         <f>VLOOKUP(C258,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3271,8 +3291,8 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="15"/>
-      <c r="B259" s="15"/>
+      <c r="A259" s="14"/>
+      <c r="B259" s="14"/>
       <c r="D259" s="3" t="str">
         <f>VLOOKUP(C259,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3283,8 +3303,8 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="15"/>
-      <c r="B260" s="15"/>
+      <c r="A260" s="14"/>
+      <c r="B260" s="14"/>
       <c r="D260" s="3" t="str">
         <f>VLOOKUP(C260,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3295,8 +3315,8 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="15"/>
-      <c r="B261" s="15"/>
+      <c r="A261" s="14"/>
+      <c r="B261" s="14"/>
       <c r="D261" s="3" t="str">
         <f>VLOOKUP(C261,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3307,8 +3327,8 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="15"/>
-      <c r="B262" s="15"/>
+      <c r="A262" s="14"/>
+      <c r="B262" s="14"/>
       <c r="D262" s="3" t="str">
         <f>VLOOKUP(C262,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3319,8 +3339,8 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="15"/>
-      <c r="B263" s="15"/>
+      <c r="A263" s="14"/>
+      <c r="B263" s="14"/>
       <c r="D263" s="3" t="str">
         <f>VLOOKUP(C263,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3331,8 +3351,8 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="15"/>
-      <c r="B264" s="15"/>
+      <c r="A264" s="14"/>
+      <c r="B264" s="14"/>
       <c r="D264" s="3" t="str">
         <f>VLOOKUP(C264,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3343,8 +3363,8 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="15"/>
-      <c r="B265" s="15"/>
+      <c r="A265" s="14"/>
+      <c r="B265" s="14"/>
       <c r="D265" s="3" t="str">
         <f>VLOOKUP(C265,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3355,8 +3375,8 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="15"/>
-      <c r="B266" s="15"/>
+      <c r="A266" s="14"/>
+      <c r="B266" s="14"/>
       <c r="D266" s="3" t="str">
         <f>VLOOKUP(C266,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3367,8 +3387,8 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="15"/>
-      <c r="B267" s="15"/>
+      <c r="A267" s="14"/>
+      <c r="B267" s="14"/>
       <c r="D267" s="3" t="str">
         <f>VLOOKUP(C267,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3379,8 +3399,8 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="15"/>
-      <c r="B268" s="15"/>
+      <c r="A268" s="14"/>
+      <c r="B268" s="14"/>
       <c r="D268" s="3" t="str">
         <f>VLOOKUP(C268,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3391,8 +3411,8 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="15"/>
-      <c r="B269" s="15"/>
+      <c r="A269" s="14"/>
+      <c r="B269" s="14"/>
       <c r="D269" s="3" t="str">
         <f>VLOOKUP(C269,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3403,8 +3423,8 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="15"/>
-      <c r="B270" s="15"/>
+      <c r="A270" s="14"/>
+      <c r="B270" s="14"/>
       <c r="D270" s="3" t="str">
         <f>VLOOKUP(C270,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3415,8 +3435,8 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="15"/>
-      <c r="B271" s="15"/>
+      <c r="A271" s="14"/>
+      <c r="B271" s="14"/>
       <c r="D271" s="3" t="str">
         <f>VLOOKUP(C271,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3427,8 +3447,8 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="15"/>
-      <c r="B272" s="15"/>
+      <c r="A272" s="14"/>
+      <c r="B272" s="14"/>
       <c r="D272" s="3" t="str">
         <f>VLOOKUP(C272,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3439,8 +3459,8 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="15"/>
-      <c r="B273" s="15"/>
+      <c r="A273" s="14"/>
+      <c r="B273" s="14"/>
       <c r="D273" s="3" t="str">
         <f>VLOOKUP(C273,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3451,8 +3471,8 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="15"/>
-      <c r="B274" s="15"/>
+      <c r="A274" s="14"/>
+      <c r="B274" s="14"/>
       <c r="D274" s="3" t="str">
         <f>VLOOKUP(C274,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3463,8 +3483,8 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" s="15"/>
-      <c r="B275" s="15"/>
+      <c r="A275" s="14"/>
+      <c r="B275" s="14"/>
       <c r="D275" s="3" t="str">
         <f>VLOOKUP(C275,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3475,8 +3495,8 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="15"/>
-      <c r="B276" s="15"/>
+      <c r="A276" s="14"/>
+      <c r="B276" s="14"/>
       <c r="D276" s="3" t="str">
         <f>VLOOKUP(C276,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3487,8 +3507,8 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" s="15"/>
-      <c r="B277" s="15"/>
+      <c r="A277" s="14"/>
+      <c r="B277" s="14"/>
       <c r="D277" s="3" t="str">
         <f>VLOOKUP(C277,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3499,8 +3519,8 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="15"/>
-      <c r="B278" s="15"/>
+      <c r="A278" s="14"/>
+      <c r="B278" s="14"/>
       <c r="D278" s="3" t="str">
         <f>VLOOKUP(C278,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3511,8 +3531,8 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" s="15"/>
-      <c r="B279" s="15"/>
+      <c r="A279" s="14"/>
+      <c r="B279" s="14"/>
       <c r="D279" s="3" t="str">
         <f>VLOOKUP(C279,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3523,8 +3543,8 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" s="15"/>
-      <c r="B280" s="15"/>
+      <c r="A280" s="14"/>
+      <c r="B280" s="14"/>
       <c r="D280" s="3" t="str">
         <f>VLOOKUP(C280,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3535,8 +3555,8 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" s="15"/>
-      <c r="B281" s="15"/>
+      <c r="A281" s="14"/>
+      <c r="B281" s="14"/>
       <c r="D281" s="3" t="str">
         <f>VLOOKUP(C281,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3547,8 +3567,8 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" s="15"/>
-      <c r="B282" s="15"/>
+      <c r="A282" s="14"/>
+      <c r="B282" s="14"/>
       <c r="D282" s="3" t="str">
         <f>VLOOKUP(C282,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3559,8 +3579,8 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" s="15"/>
-      <c r="B283" s="15"/>
+      <c r="A283" s="14"/>
+      <c r="B283" s="14"/>
       <c r="D283" s="3" t="str">
         <f>VLOOKUP(C283,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3571,8 +3591,8 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" s="15"/>
-      <c r="B284" s="15"/>
+      <c r="A284" s="14"/>
+      <c r="B284" s="14"/>
       <c r="D284" s="3" t="str">
         <f>VLOOKUP(C284,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3583,8 +3603,8 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" s="15"/>
-      <c r="B285" s="15"/>
+      <c r="A285" s="14"/>
+      <c r="B285" s="14"/>
       <c r="D285" s="3" t="str">
         <f>VLOOKUP(C285,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3595,8 +3615,8 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" s="15"/>
-      <c r="B286" s="15"/>
+      <c r="A286" s="14"/>
+      <c r="B286" s="14"/>
       <c r="D286" s="3" t="str">
         <f>VLOOKUP(C286,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3607,8 +3627,8 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="15"/>
-      <c r="B287" s="15"/>
+      <c r="A287" s="14"/>
+      <c r="B287" s="14"/>
       <c r="D287" s="3" t="str">
         <f>VLOOKUP(C287,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3619,8 +3639,8 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="15"/>
-      <c r="B288" s="15"/>
+      <c r="A288" s="14"/>
+      <c r="B288" s="14"/>
       <c r="D288" s="3" t="str">
         <f>VLOOKUP(C288,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3631,8 +3651,8 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="15"/>
-      <c r="B289" s="15"/>
+      <c r="A289" s="14"/>
+      <c r="B289" s="14"/>
       <c r="D289" s="3" t="str">
         <f>VLOOKUP(C289,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3643,8 +3663,8 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="15"/>
-      <c r="B290" s="15"/>
+      <c r="A290" s="14"/>
+      <c r="B290" s="14"/>
       <c r="D290" s="3" t="str">
         <f>VLOOKUP(C290,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3655,8 +3675,8 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" s="15"/>
-      <c r="B291" s="15"/>
+      <c r="A291" s="14"/>
+      <c r="B291" s="14"/>
       <c r="D291" s="3" t="str">
         <f>VLOOKUP(C291,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3667,8 +3687,8 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="15"/>
-      <c r="B292" s="15"/>
+      <c r="A292" s="14"/>
+      <c r="B292" s="14"/>
       <c r="D292" s="3" t="str">
         <f>VLOOKUP(C292,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3679,8 +3699,8 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="15"/>
-      <c r="B293" s="15"/>
+      <c r="A293" s="14"/>
+      <c r="B293" s="14"/>
       <c r="D293" s="3" t="str">
         <f>VLOOKUP(C293,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3691,8 +3711,8 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" s="15"/>
-      <c r="B294" s="15"/>
+      <c r="A294" s="14"/>
+      <c r="B294" s="14"/>
       <c r="D294" s="3" t="str">
         <f>VLOOKUP(C294,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3703,8 +3723,8 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="15"/>
-      <c r="B295" s="15"/>
+      <c r="A295" s="14"/>
+      <c r="B295" s="14"/>
       <c r="D295" s="3" t="str">
         <f>VLOOKUP(C295,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3715,8 +3735,8 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" s="15"/>
-      <c r="B296" s="15"/>
+      <c r="A296" s="14"/>
+      <c r="B296" s="14"/>
       <c r="D296" s="3" t="str">
         <f>VLOOKUP(C296,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3727,8 +3747,8 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" s="15"/>
-      <c r="B297" s="15"/>
+      <c r="A297" s="14"/>
+      <c r="B297" s="14"/>
       <c r="D297" s="3" t="str">
         <f>VLOOKUP(C297,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3739,8 +3759,8 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" s="15"/>
-      <c r="B298" s="15"/>
+      <c r="A298" s="14"/>
+      <c r="B298" s="14"/>
       <c r="D298" s="3" t="str">
         <f>VLOOKUP(C298,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3751,8 +3771,8 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="15"/>
-      <c r="B299" s="15"/>
+      <c r="A299" s="14"/>
+      <c r="B299" s="14"/>
       <c r="D299" s="3" t="str">
         <f>VLOOKUP(C299,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3763,8 +3783,8 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="15"/>
-      <c r="B300" s="15"/>
+      <c r="A300" s="14"/>
+      <c r="B300" s="14"/>
       <c r="D300" s="3" t="str">
         <f>VLOOKUP(C300,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3775,8 +3795,8 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="15"/>
-      <c r="B301" s="15"/>
+      <c r="A301" s="14"/>
+      <c r="B301" s="14"/>
       <c r="D301" s="3" t="str">
         <f>VLOOKUP(C301,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3787,8 +3807,8 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="15"/>
-      <c r="B302" s="15"/>
+      <c r="A302" s="14"/>
+      <c r="B302" s="14"/>
       <c r="D302" s="3" t="str">
         <f>VLOOKUP(C302,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3799,8 +3819,8 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="15"/>
-      <c r="B303" s="15"/>
+      <c r="A303" s="14"/>
+      <c r="B303" s="14"/>
       <c r="D303" s="3" t="str">
         <f>VLOOKUP(C303,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3811,8 +3831,8 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="15"/>
-      <c r="B304" s="15"/>
+      <c r="A304" s="14"/>
+      <c r="B304" s="14"/>
       <c r="D304" s="3" t="str">
         <f>VLOOKUP(C304,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3823,8 +3843,8 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="15"/>
-      <c r="B305" s="15"/>
+      <c r="A305" s="14"/>
+      <c r="B305" s="14"/>
       <c r="D305" s="3" t="str">
         <f>VLOOKUP(C305,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3835,8 +3855,8 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="15"/>
-      <c r="B306" s="15"/>
+      <c r="A306" s="14"/>
+      <c r="B306" s="14"/>
       <c r="D306" s="3" t="str">
         <f>VLOOKUP(C306,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3847,8 +3867,8 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="15"/>
-      <c r="B307" s="15"/>
+      <c r="A307" s="14"/>
+      <c r="B307" s="14"/>
       <c r="D307" s="3" t="str">
         <f>VLOOKUP(C307,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3859,8 +3879,8 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="15"/>
-      <c r="B308" s="15"/>
+      <c r="A308" s="14"/>
+      <c r="B308" s="14"/>
       <c r="D308" s="3" t="str">
         <f>VLOOKUP(C308,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3871,8 +3891,8 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" s="15"/>
-      <c r="B309" s="15"/>
+      <c r="A309" s="14"/>
+      <c r="B309" s="14"/>
       <c r="D309" s="3" t="str">
         <f>VLOOKUP(C309,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3883,8 +3903,8 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="15"/>
-      <c r="B310" s="15"/>
+      <c r="A310" s="14"/>
+      <c r="B310" s="14"/>
       <c r="D310" s="3" t="str">
         <f>VLOOKUP(C310,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3895,8 +3915,8 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" s="15"/>
-      <c r="B311" s="15"/>
+      <c r="A311" s="14"/>
+      <c r="B311" s="14"/>
       <c r="D311" s="3" t="str">
         <f>VLOOKUP(C311,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3907,8 +3927,8 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" s="15"/>
-      <c r="B312" s="15"/>
+      <c r="A312" s="14"/>
+      <c r="B312" s="14"/>
       <c r="D312" s="3" t="str">
         <f>VLOOKUP(C312,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3919,8 +3939,8 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" s="15"/>
-      <c r="B313" s="15"/>
+      <c r="A313" s="14"/>
+      <c r="B313" s="14"/>
       <c r="D313" s="3" t="str">
         <f>VLOOKUP(C313,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3931,8 +3951,8 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="15"/>
-      <c r="B314" s="15"/>
+      <c r="A314" s="14"/>
+      <c r="B314" s="14"/>
       <c r="D314" s="3" t="str">
         <f>VLOOKUP(C314,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3943,8 +3963,8 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" s="15"/>
-      <c r="B315" s="15"/>
+      <c r="A315" s="14"/>
+      <c r="B315" s="14"/>
       <c r="D315" s="3" t="str">
         <f>VLOOKUP(C315,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3955,8 +3975,8 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" s="15"/>
-      <c r="B316" s="15"/>
+      <c r="A316" s="14"/>
+      <c r="B316" s="14"/>
       <c r="D316" s="3" t="str">
         <f>VLOOKUP(C316,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3967,8 +3987,8 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" s="15"/>
-      <c r="B317" s="15"/>
+      <c r="A317" s="14"/>
+      <c r="B317" s="14"/>
       <c r="D317" s="3" t="str">
         <f>VLOOKUP(C317,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3979,8 +3999,8 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" s="15"/>
-      <c r="B318" s="15"/>
+      <c r="A318" s="14"/>
+      <c r="B318" s="14"/>
       <c r="D318" s="3" t="str">
         <f>VLOOKUP(C318,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -3991,8 +4011,8 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" s="15"/>
-      <c r="B319" s="15"/>
+      <c r="A319" s="14"/>
+      <c r="B319" s="14"/>
       <c r="D319" s="3" t="str">
         <f>VLOOKUP(C319,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4003,8 +4023,8 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" s="15"/>
-      <c r="B320" s="15"/>
+      <c r="A320" s="14"/>
+      <c r="B320" s="14"/>
       <c r="D320" s="3" t="str">
         <f>VLOOKUP(C320,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4015,8 +4035,8 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" s="15"/>
-      <c r="B321" s="15"/>
+      <c r="A321" s="14"/>
+      <c r="B321" s="14"/>
       <c r="D321" s="3" t="str">
         <f>VLOOKUP(C321,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4027,8 +4047,8 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" s="15"/>
-      <c r="B322" s="15"/>
+      <c r="A322" s="14"/>
+      <c r="B322" s="14"/>
       <c r="D322" s="3" t="str">
         <f>VLOOKUP(C322,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4039,8 +4059,8 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="15"/>
-      <c r="B323" s="15"/>
+      <c r="A323" s="14"/>
+      <c r="B323" s="14"/>
       <c r="D323" s="3" t="str">
         <f>VLOOKUP(C323,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4051,8 +4071,8 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" s="15"/>
-      <c r="B324" s="15"/>
+      <c r="A324" s="14"/>
+      <c r="B324" s="14"/>
       <c r="D324" s="3" t="str">
         <f>VLOOKUP(C324,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4063,8 +4083,8 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="15"/>
-      <c r="B325" s="15"/>
+      <c r="A325" s="14"/>
+      <c r="B325" s="14"/>
       <c r="D325" s="3" t="str">
         <f>VLOOKUP(C325,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4075,8 +4095,8 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="15"/>
-      <c r="B326" s="15"/>
+      <c r="A326" s="14"/>
+      <c r="B326" s="14"/>
       <c r="D326" s="3" t="str">
         <f>VLOOKUP(C326,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4087,8 +4107,8 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="15"/>
-      <c r="B327" s="15"/>
+      <c r="A327" s="14"/>
+      <c r="B327" s="14"/>
       <c r="D327" s="3" t="str">
         <f>VLOOKUP(C327,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4099,8 +4119,8 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" s="15"/>
-      <c r="B328" s="15"/>
+      <c r="A328" s="14"/>
+      <c r="B328" s="14"/>
       <c r="D328" s="3" t="str">
         <f>VLOOKUP(C328,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4111,8 +4131,8 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" s="15"/>
-      <c r="B329" s="15"/>
+      <c r="A329" s="14"/>
+      <c r="B329" s="14"/>
       <c r="D329" s="3" t="str">
         <f>VLOOKUP(C329,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4123,8 +4143,8 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="15"/>
-      <c r="B330" s="15"/>
+      <c r="A330" s="14"/>
+      <c r="B330" s="14"/>
       <c r="D330" s="3" t="str">
         <f>VLOOKUP(C330,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4135,8 +4155,8 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" s="15"/>
-      <c r="B331" s="15"/>
+      <c r="A331" s="14"/>
+      <c r="B331" s="14"/>
       <c r="D331" s="3" t="str">
         <f>VLOOKUP(C331,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4147,8 +4167,8 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" s="15"/>
-      <c r="B332" s="15"/>
+      <c r="A332" s="14"/>
+      <c r="B332" s="14"/>
       <c r="D332" s="3" t="str">
         <f>VLOOKUP(C332,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4159,8 +4179,8 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" s="15"/>
-      <c r="B333" s="15"/>
+      <c r="A333" s="14"/>
+      <c r="B333" s="14"/>
       <c r="D333" s="3" t="str">
         <f>VLOOKUP(C333,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4171,8 +4191,8 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="15"/>
-      <c r="B334" s="15"/>
+      <c r="A334" s="14"/>
+      <c r="B334" s="14"/>
       <c r="D334" s="3" t="str">
         <f>VLOOKUP(C334,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4183,8 +4203,8 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="15"/>
-      <c r="B335" s="15"/>
+      <c r="A335" s="14"/>
+      <c r="B335" s="14"/>
       <c r="D335" s="3" t="str">
         <f>VLOOKUP(C335,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4195,8 +4215,8 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="15"/>
-      <c r="B336" s="15"/>
+      <c r="A336" s="14"/>
+      <c r="B336" s="14"/>
       <c r="D336" s="3" t="str">
         <f>VLOOKUP(C336,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4207,8 +4227,8 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="15"/>
-      <c r="B337" s="15"/>
+      <c r="A337" s="14"/>
+      <c r="B337" s="14"/>
       <c r="D337" s="3" t="str">
         <f>VLOOKUP(C337,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4219,8 +4239,8 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="15"/>
-      <c r="B338" s="15"/>
+      <c r="A338" s="14"/>
+      <c r="B338" s="14"/>
       <c r="D338" s="3" t="str">
         <f>VLOOKUP(C338,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4231,8 +4251,8 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="15"/>
-      <c r="B339" s="15"/>
+      <c r="A339" s="14"/>
+      <c r="B339" s="14"/>
       <c r="D339" s="3" t="str">
         <f>VLOOKUP(C339,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4243,8 +4263,8 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="15"/>
-      <c r="B340" s="15"/>
+      <c r="A340" s="14"/>
+      <c r="B340" s="14"/>
       <c r="D340" s="3" t="str">
         <f>VLOOKUP(C340,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4255,8 +4275,8 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="15"/>
-      <c r="B341" s="15"/>
+      <c r="A341" s="14"/>
+      <c r="B341" s="14"/>
       <c r="D341" s="3" t="str">
         <f>VLOOKUP(C341,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4267,8 +4287,8 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="15"/>
-      <c r="B342" s="15"/>
+      <c r="A342" s="14"/>
+      <c r="B342" s="14"/>
       <c r="D342" s="3" t="str">
         <f>VLOOKUP(C342,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4279,8 +4299,8 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="15"/>
-      <c r="B343" s="15"/>
+      <c r="A343" s="14"/>
+      <c r="B343" s="14"/>
       <c r="D343" s="3" t="str">
         <f>VLOOKUP(C343,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4291,8 +4311,8 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="15"/>
-      <c r="B344" s="15"/>
+      <c r="A344" s="14"/>
+      <c r="B344" s="14"/>
       <c r="D344" s="3" t="str">
         <f>VLOOKUP(C344,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4303,8 +4323,8 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="15"/>
-      <c r="B345" s="15"/>
+      <c r="A345" s="14"/>
+      <c r="B345" s="14"/>
       <c r="D345" s="3" t="str">
         <f>VLOOKUP(C345,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4315,8 +4335,8 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" s="15"/>
-      <c r="B346" s="15"/>
+      <c r="A346" s="14"/>
+      <c r="B346" s="14"/>
       <c r="D346" s="3" t="str">
         <f>VLOOKUP(C346,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4327,8 +4347,8 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="15"/>
-      <c r="B347" s="15"/>
+      <c r="A347" s="14"/>
+      <c r="B347" s="14"/>
       <c r="D347" s="3" t="str">
         <f>VLOOKUP(C347,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4339,8 +4359,8 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="15"/>
-      <c r="B348" s="15"/>
+      <c r="A348" s="14"/>
+      <c r="B348" s="14"/>
       <c r="D348" s="3" t="str">
         <f>VLOOKUP(C348,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4351,8 +4371,8 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349" s="15"/>
-      <c r="B349" s="15"/>
+      <c r="A349" s="14"/>
+      <c r="B349" s="14"/>
       <c r="D349" s="3" t="str">
         <f>VLOOKUP(C349,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4363,8 +4383,8 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A350" s="15"/>
-      <c r="B350" s="15"/>
+      <c r="A350" s="14"/>
+      <c r="B350" s="14"/>
       <c r="D350" s="3" t="str">
         <f>VLOOKUP(C350,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4375,8 +4395,8 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A351" s="15"/>
-      <c r="B351" s="15"/>
+      <c r="A351" s="14"/>
+      <c r="B351" s="14"/>
       <c r="D351" s="3" t="str">
         <f>VLOOKUP(C351,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4387,8 +4407,8 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="15"/>
-      <c r="B352" s="15"/>
+      <c r="A352" s="14"/>
+      <c r="B352" s="14"/>
       <c r="D352" s="3" t="str">
         <f>VLOOKUP(C352,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4399,8 +4419,8 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A353" s="15"/>
-      <c r="B353" s="15"/>
+      <c r="A353" s="14"/>
+      <c r="B353" s="14"/>
       <c r="D353" s="3" t="str">
         <f>VLOOKUP(C353,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4411,8 +4431,8 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A354" s="15"/>
-      <c r="B354" s="15"/>
+      <c r="A354" s="14"/>
+      <c r="B354" s="14"/>
       <c r="D354" s="3" t="str">
         <f>VLOOKUP(C354,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4423,8 +4443,8 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355" s="15"/>
-      <c r="B355" s="15"/>
+      <c r="A355" s="14"/>
+      <c r="B355" s="14"/>
       <c r="D355" s="3" t="str">
         <f>VLOOKUP(C355,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4435,8 +4455,8 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" s="15"/>
-      <c r="B356" s="15"/>
+      <c r="A356" s="14"/>
+      <c r="B356" s="14"/>
       <c r="D356" s="3" t="str">
         <f>VLOOKUP(C356,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4447,8 +4467,8 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A357" s="15"/>
-      <c r="B357" s="15"/>
+      <c r="A357" s="14"/>
+      <c r="B357" s="14"/>
       <c r="D357" s="3" t="str">
         <f>VLOOKUP(C357,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4459,8 +4479,8 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A358" s="15"/>
-      <c r="B358" s="15"/>
+      <c r="A358" s="14"/>
+      <c r="B358" s="14"/>
       <c r="D358" s="3" t="str">
         <f>VLOOKUP(C358,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4471,8 +4491,8 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A359" s="15"/>
-      <c r="B359" s="15"/>
+      <c r="A359" s="14"/>
+      <c r="B359" s="14"/>
       <c r="D359" s="3" t="str">
         <f>VLOOKUP(C359,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4483,8 +4503,8 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A360" s="15"/>
-      <c r="B360" s="15"/>
+      <c r="A360" s="14"/>
+      <c r="B360" s="14"/>
       <c r="D360" s="3" t="str">
         <f>VLOOKUP(C360,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4495,8 +4515,8 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A361" s="15"/>
-      <c r="B361" s="15"/>
+      <c r="A361" s="14"/>
+      <c r="B361" s="14"/>
       <c r="D361" s="3" t="str">
         <f>VLOOKUP(C361,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4507,8 +4527,8 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A362" s="15"/>
-      <c r="B362" s="15"/>
+      <c r="A362" s="14"/>
+      <c r="B362" s="14"/>
       <c r="D362" s="3" t="str">
         <f>VLOOKUP(C362,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4519,8 +4539,8 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A363" s="15"/>
-      <c r="B363" s="15"/>
+      <c r="A363" s="14"/>
+      <c r="B363" s="14"/>
       <c r="D363" s="3" t="str">
         <f>VLOOKUP(C363,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4531,8 +4551,8 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A364" s="15"/>
-      <c r="B364" s="15"/>
+      <c r="A364" s="14"/>
+      <c r="B364" s="14"/>
       <c r="D364" s="3" t="str">
         <f>VLOOKUP(C364,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4543,8 +4563,8 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A365" s="15"/>
-      <c r="B365" s="15"/>
+      <c r="A365" s="14"/>
+      <c r="B365" s="14"/>
       <c r="D365" s="3" t="str">
         <f>VLOOKUP(C365,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4555,8 +4575,8 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A366" s="15"/>
-      <c r="B366" s="15"/>
+      <c r="A366" s="14"/>
+      <c r="B366" s="14"/>
       <c r="D366" s="3" t="str">
         <f>VLOOKUP(C366,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4567,8 +4587,8 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A367" s="15"/>
-      <c r="B367" s="15"/>
+      <c r="A367" s="14"/>
+      <c r="B367" s="14"/>
       <c r="D367" s="3" t="str">
         <f>VLOOKUP(C367,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4579,8 +4599,8 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A368" s="15"/>
-      <c r="B368" s="15"/>
+      <c r="A368" s="14"/>
+      <c r="B368" s="14"/>
       <c r="D368" s="3" t="str">
         <f>VLOOKUP(C368,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4591,8 +4611,8 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A369" s="15"/>
-      <c r="B369" s="15"/>
+      <c r="A369" s="14"/>
+      <c r="B369" s="14"/>
       <c r="D369" s="3" t="str">
         <f>VLOOKUP(C369,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4603,8 +4623,8 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A370" s="15"/>
-      <c r="B370" s="15"/>
+      <c r="A370" s="14"/>
+      <c r="B370" s="14"/>
       <c r="D370" s="3" t="str">
         <f>VLOOKUP(C370,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4615,8 +4635,8 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A371" s="15"/>
-      <c r="B371" s="15"/>
+      <c r="A371" s="14"/>
+      <c r="B371" s="14"/>
       <c r="D371" s="3" t="str">
         <f>VLOOKUP(C371,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4627,8 +4647,8 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A372" s="15"/>
-      <c r="B372" s="15"/>
+      <c r="A372" s="14"/>
+      <c r="B372" s="14"/>
       <c r="D372" s="3" t="str">
         <f>VLOOKUP(C372,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4639,8 +4659,8 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A373" s="15"/>
-      <c r="B373" s="15"/>
+      <c r="A373" s="14"/>
+      <c r="B373" s="14"/>
       <c r="D373" s="3" t="str">
         <f>VLOOKUP(C373,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4651,8 +4671,8 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A374" s="15"/>
-      <c r="B374" s="15"/>
+      <c r="A374" s="14"/>
+      <c r="B374" s="14"/>
       <c r="D374" s="3" t="str">
         <f>VLOOKUP(C374,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4663,8 +4683,8 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A375" s="15"/>
-      <c r="B375" s="15"/>
+      <c r="A375" s="14"/>
+      <c r="B375" s="14"/>
       <c r="D375" s="3" t="str">
         <f>VLOOKUP(C375,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4675,8 +4695,8 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A376" s="15"/>
-      <c r="B376" s="15"/>
+      <c r="A376" s="14"/>
+      <c r="B376" s="14"/>
       <c r="D376" s="3" t="str">
         <f>VLOOKUP(C376,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4687,8 +4707,8 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A377" s="15"/>
-      <c r="B377" s="15"/>
+      <c r="A377" s="14"/>
+      <c r="B377" s="14"/>
       <c r="D377" s="3" t="str">
         <f>VLOOKUP(C377,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4699,8 +4719,8 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A378" s="15"/>
-      <c r="B378" s="15"/>
+      <c r="A378" s="14"/>
+      <c r="B378" s="14"/>
       <c r="D378" s="3" t="str">
         <f>VLOOKUP(C378,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4711,8 +4731,8 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A379" s="15"/>
-      <c r="B379" s="15"/>
+      <c r="A379" s="14"/>
+      <c r="B379" s="14"/>
       <c r="D379" s="3" t="str">
         <f>VLOOKUP(C379,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4723,8 +4743,8 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380" s="15"/>
-      <c r="B380" s="15"/>
+      <c r="A380" s="14"/>
+      <c r="B380" s="14"/>
       <c r="D380" s="3" t="str">
         <f>VLOOKUP(C380,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4735,8 +4755,8 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A381" s="15"/>
-      <c r="B381" s="15"/>
+      <c r="A381" s="14"/>
+      <c r="B381" s="14"/>
       <c r="D381" s="3" t="str">
         <f>VLOOKUP(C381,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4747,8 +4767,8 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A382" s="15"/>
-      <c r="B382" s="15"/>
+      <c r="A382" s="14"/>
+      <c r="B382" s="14"/>
       <c r="D382" s="3" t="str">
         <f>VLOOKUP(C382,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4759,8 +4779,8 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A383" s="15"/>
-      <c r="B383" s="15"/>
+      <c r="A383" s="14"/>
+      <c r="B383" s="14"/>
       <c r="D383" s="3" t="str">
         <f>VLOOKUP(C383,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4771,8 +4791,8 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A384" s="15"/>
-      <c r="B384" s="15"/>
+      <c r="A384" s="14"/>
+      <c r="B384" s="14"/>
       <c r="D384" s="3" t="str">
         <f>VLOOKUP(C384,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4783,8 +4803,8 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A385" s="15"/>
-      <c r="B385" s="15"/>
+      <c r="A385" s="14"/>
+      <c r="B385" s="14"/>
       <c r="D385" s="3" t="str">
         <f>VLOOKUP(C385,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4795,8 +4815,8 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A386" s="15"/>
-      <c r="B386" s="15"/>
+      <c r="A386" s="14"/>
+      <c r="B386" s="14"/>
       <c r="D386" s="3" t="str">
         <f>VLOOKUP(C386,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4807,8 +4827,8 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A387" s="15"/>
-      <c r="B387" s="15"/>
+      <c r="A387" s="14"/>
+      <c r="B387" s="14"/>
       <c r="D387" s="3" t="str">
         <f>VLOOKUP(C387,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4819,8 +4839,8 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A388" s="15"/>
-      <c r="B388" s="15"/>
+      <c r="A388" s="14"/>
+      <c r="B388" s="14"/>
       <c r="D388" s="3" t="str">
         <f>VLOOKUP(C388,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4831,8 +4851,8 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A389" s="15"/>
-      <c r="B389" s="15"/>
+      <c r="A389" s="14"/>
+      <c r="B389" s="14"/>
       <c r="D389" s="3" t="str">
         <f>VLOOKUP(C389,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4843,8 +4863,8 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A390" s="15"/>
-      <c r="B390" s="15"/>
+      <c r="A390" s="14"/>
+      <c r="B390" s="14"/>
       <c r="D390" s="3" t="str">
         <f>VLOOKUP(C390,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4855,8 +4875,8 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A391" s="15"/>
-      <c r="B391" s="15"/>
+      <c r="A391" s="14"/>
+      <c r="B391" s="14"/>
       <c r="D391" s="3" t="str">
         <f>VLOOKUP(C391,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4867,8 +4887,8 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A392" s="15"/>
-      <c r="B392" s="15"/>
+      <c r="A392" s="14"/>
+      <c r="B392" s="14"/>
       <c r="D392" s="3" t="str">
         <f>VLOOKUP(C392,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4879,8 +4899,8 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A393" s="15"/>
-      <c r="B393" s="15"/>
+      <c r="A393" s="14"/>
+      <c r="B393" s="14"/>
       <c r="D393" s="3" t="str">
         <f>VLOOKUP(C393,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4891,8 +4911,8 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A394" s="15"/>
-      <c r="B394" s="15"/>
+      <c r="A394" s="14"/>
+      <c r="B394" s="14"/>
       <c r="D394" s="3" t="str">
         <f>VLOOKUP(C394,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4903,8 +4923,8 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A395" s="15"/>
-      <c r="B395" s="15"/>
+      <c r="A395" s="14"/>
+      <c r="B395" s="14"/>
       <c r="D395" s="3" t="str">
         <f>VLOOKUP(C395,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4915,8 +4935,8 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A396" s="15"/>
-      <c r="B396" s="15"/>
+      <c r="A396" s="14"/>
+      <c r="B396" s="14"/>
       <c r="D396" s="3" t="str">
         <f>VLOOKUP(C396,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4927,8 +4947,8 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A397" s="15"/>
-      <c r="B397" s="15"/>
+      <c r="A397" s="14"/>
+      <c r="B397" s="14"/>
       <c r="D397" s="3" t="str">
         <f>VLOOKUP(C397,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4939,8 +4959,8 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A398" s="15"/>
-      <c r="B398" s="15"/>
+      <c r="A398" s="14"/>
+      <c r="B398" s="14"/>
       <c r="D398" s="3" t="str">
         <f>VLOOKUP(C398,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4951,8 +4971,8 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A399" s="15"/>
-      <c r="B399" s="15"/>
+      <c r="A399" s="14"/>
+      <c r="B399" s="14"/>
       <c r="D399" s="3" t="str">
         <f>VLOOKUP(C399,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4963,8 +4983,8 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A400" s="15"/>
-      <c r="B400" s="15"/>
+      <c r="A400" s="14"/>
+      <c r="B400" s="14"/>
       <c r="D400" s="3" t="str">
         <f>VLOOKUP(C400,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4975,8 +4995,8 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A401" s="15"/>
-      <c r="B401" s="15"/>
+      <c r="A401" s="14"/>
+      <c r="B401" s="14"/>
       <c r="D401" s="3" t="str">
         <f>VLOOKUP(C401,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4987,8 +5007,8 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A402" s="15"/>
-      <c r="B402" s="15"/>
+      <c r="A402" s="14"/>
+      <c r="B402" s="14"/>
       <c r="D402" s="3" t="str">
         <f>VLOOKUP(C402,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -4999,8 +5019,8 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A403" s="15"/>
-      <c r="B403" s="15"/>
+      <c r="A403" s="14"/>
+      <c r="B403" s="14"/>
       <c r="D403" s="3" t="str">
         <f>VLOOKUP(C403,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5011,8 +5031,8 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A404" s="15"/>
-      <c r="B404" s="15"/>
+      <c r="A404" s="14"/>
+      <c r="B404" s="14"/>
       <c r="D404" s="3" t="str">
         <f>VLOOKUP(C404,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5023,8 +5043,8 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A405" s="15"/>
-      <c r="B405" s="15"/>
+      <c r="A405" s="14"/>
+      <c r="B405" s="14"/>
       <c r="D405" s="3" t="str">
         <f>VLOOKUP(C405,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5035,8 +5055,8 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A406" s="15"/>
-      <c r="B406" s="15"/>
+      <c r="A406" s="14"/>
+      <c r="B406" s="14"/>
       <c r="D406" s="3" t="str">
         <f>VLOOKUP(C406,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5047,8 +5067,8 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A407" s="15"/>
-      <c r="B407" s="15"/>
+      <c r="A407" s="14"/>
+      <c r="B407" s="14"/>
       <c r="D407" s="3" t="str">
         <f>VLOOKUP(C407,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5059,8 +5079,8 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A408" s="15"/>
-      <c r="B408" s="15"/>
+      <c r="A408" s="14"/>
+      <c r="B408" s="14"/>
       <c r="D408" s="3" t="str">
         <f>VLOOKUP(C408,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5071,8 +5091,8 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A409" s="15"/>
-      <c r="B409" s="15"/>
+      <c r="A409" s="14"/>
+      <c r="B409" s="14"/>
       <c r="D409" s="3" t="str">
         <f>VLOOKUP(C409,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5083,8 +5103,8 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A410" s="15"/>
-      <c r="B410" s="15"/>
+      <c r="A410" s="14"/>
+      <c r="B410" s="14"/>
       <c r="D410" s="3" t="str">
         <f>VLOOKUP(C410,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5095,8 +5115,8 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A411" s="15"/>
-      <c r="B411" s="15"/>
+      <c r="A411" s="14"/>
+      <c r="B411" s="14"/>
       <c r="D411" s="3" t="str">
         <f>VLOOKUP(C411,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5107,8 +5127,8 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A412" s="15"/>
-      <c r="B412" s="15"/>
+      <c r="A412" s="14"/>
+      <c r="B412" s="14"/>
       <c r="D412" s="3" t="str">
         <f>VLOOKUP(C412,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5119,8 +5139,8 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A413" s="15"/>
-      <c r="B413" s="15"/>
+      <c r="A413" s="14"/>
+      <c r="B413" s="14"/>
       <c r="D413" s="3" t="str">
         <f>VLOOKUP(C413,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5131,8 +5151,8 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A414" s="15"/>
-      <c r="B414" s="15"/>
+      <c r="A414" s="14"/>
+      <c r="B414" s="14"/>
       <c r="D414" s="3" t="str">
         <f>VLOOKUP(C414,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5143,8 +5163,8 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A415" s="15"/>
-      <c r="B415" s="15"/>
+      <c r="A415" s="14"/>
+      <c r="B415" s="14"/>
       <c r="D415" s="3" t="str">
         <f>VLOOKUP(C415,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5155,8 +5175,8 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A416" s="15"/>
-      <c r="B416" s="15"/>
+      <c r="A416" s="14"/>
+      <c r="B416" s="14"/>
       <c r="D416" s="3" t="str">
         <f>VLOOKUP(C416,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5167,8 +5187,8 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A417" s="15"/>
-      <c r="B417" s="15"/>
+      <c r="A417" s="14"/>
+      <c r="B417" s="14"/>
       <c r="D417" s="3" t="str">
         <f>VLOOKUP(C417,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5179,8 +5199,8 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A418" s="15"/>
-      <c r="B418" s="15"/>
+      <c r="A418" s="14"/>
+      <c r="B418" s="14"/>
       <c r="D418" s="3" t="str">
         <f>VLOOKUP(C418,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5191,8 +5211,8 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A419" s="15"/>
-      <c r="B419" s="15"/>
+      <c r="A419" s="14"/>
+      <c r="B419" s="14"/>
       <c r="D419" s="3" t="str">
         <f>VLOOKUP(C419,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5203,8 +5223,8 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A420" s="15"/>
-      <c r="B420" s="15"/>
+      <c r="A420" s="14"/>
+      <c r="B420" s="14"/>
       <c r="D420" s="3" t="str">
         <f>VLOOKUP(C420,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5215,8 +5235,8 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A421" s="15"/>
-      <c r="B421" s="15"/>
+      <c r="A421" s="14"/>
+      <c r="B421" s="14"/>
       <c r="D421" s="3" t="str">
         <f>VLOOKUP(C421,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5227,8 +5247,8 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A422" s="15"/>
-      <c r="B422" s="15"/>
+      <c r="A422" s="14"/>
+      <c r="B422" s="14"/>
       <c r="D422" s="3" t="str">
         <f>VLOOKUP(C422,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5239,8 +5259,8 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A423" s="15"/>
-      <c r="B423" s="15"/>
+      <c r="A423" s="14"/>
+      <c r="B423" s="14"/>
       <c r="D423" s="3" t="str">
         <f>VLOOKUP(C423,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5251,8 +5271,8 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A424" s="15"/>
-      <c r="B424" s="15"/>
+      <c r="A424" s="14"/>
+      <c r="B424" s="14"/>
       <c r="D424" s="3" t="str">
         <f>VLOOKUP(C424,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5263,8 +5283,8 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A425" s="15"/>
-      <c r="B425" s="15"/>
+      <c r="A425" s="14"/>
+      <c r="B425" s="14"/>
       <c r="D425" s="3" t="str">
         <f>VLOOKUP(C425,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5275,8 +5295,8 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A426" s="15"/>
-      <c r="B426" s="15"/>
+      <c r="A426" s="14"/>
+      <c r="B426" s="14"/>
       <c r="D426" s="3" t="str">
         <f>VLOOKUP(C426,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5287,8 +5307,8 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A427" s="15"/>
-      <c r="B427" s="15"/>
+      <c r="A427" s="14"/>
+      <c r="B427" s="14"/>
       <c r="D427" s="3" t="str">
         <f>VLOOKUP(C427,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5299,8 +5319,8 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A428" s="15"/>
-      <c r="B428" s="15"/>
+      <c r="A428" s="14"/>
+      <c r="B428" s="14"/>
       <c r="D428" s="3" t="str">
         <f>VLOOKUP(C428,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5311,8 +5331,8 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A429" s="15"/>
-      <c r="B429" s="15"/>
+      <c r="A429" s="14"/>
+      <c r="B429" s="14"/>
       <c r="D429" s="3" t="str">
         <f>VLOOKUP(C429,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5323,8 +5343,8 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A430" s="15"/>
-      <c r="B430" s="15"/>
+      <c r="A430" s="14"/>
+      <c r="B430" s="14"/>
       <c r="D430" s="3" t="str">
         <f>VLOOKUP(C430,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5335,8 +5355,8 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A431" s="15"/>
-      <c r="B431" s="15"/>
+      <c r="A431" s="14"/>
+      <c r="B431" s="14"/>
       <c r="D431" s="3" t="str">
         <f>VLOOKUP(C431,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5347,8 +5367,8 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A432" s="15"/>
-      <c r="B432" s="15"/>
+      <c r="A432" s="14"/>
+      <c r="B432" s="14"/>
       <c r="D432" s="3" t="str">
         <f>VLOOKUP(C432,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5359,8 +5379,8 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A433" s="15"/>
-      <c r="B433" s="15"/>
+      <c r="A433" s="14"/>
+      <c r="B433" s="14"/>
       <c r="D433" s="3" t="str">
         <f>VLOOKUP(C433,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5371,8 +5391,8 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A434" s="15"/>
-      <c r="B434" s="15"/>
+      <c r="A434" s="14"/>
+      <c r="B434" s="14"/>
       <c r="D434" s="3" t="str">
         <f>VLOOKUP(C434,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5383,8 +5403,8 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A435" s="15"/>
-      <c r="B435" s="15"/>
+      <c r="A435" s="14"/>
+      <c r="B435" s="14"/>
       <c r="D435" s="3" t="str">
         <f>VLOOKUP(C435,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5395,8 +5415,8 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A436" s="15"/>
-      <c r="B436" s="15"/>
+      <c r="A436" s="14"/>
+      <c r="B436" s="14"/>
       <c r="D436" s="3" t="str">
         <f>VLOOKUP(C436,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5407,8 +5427,8 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A437" s="15"/>
-      <c r="B437" s="15"/>
+      <c r="A437" s="14"/>
+      <c r="B437" s="14"/>
       <c r="D437" s="3" t="str">
         <f>VLOOKUP(C437,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5419,8 +5439,8 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A438" s="15"/>
-      <c r="B438" s="15"/>
+      <c r="A438" s="14"/>
+      <c r="B438" s="14"/>
       <c r="D438" s="3" t="str">
         <f>VLOOKUP(C438,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5431,8 +5451,8 @@
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A439" s="15"/>
-      <c r="B439" s="15"/>
+      <c r="A439" s="14"/>
+      <c r="B439" s="14"/>
       <c r="D439" s="3" t="str">
         <f>VLOOKUP(C439,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5443,8 +5463,8 @@
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A440" s="15"/>
-      <c r="B440" s="15"/>
+      <c r="A440" s="14"/>
+      <c r="B440" s="14"/>
       <c r="D440" s="3" t="str">
         <f>VLOOKUP(C440,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5455,8 +5475,8 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A441" s="15"/>
-      <c r="B441" s="15"/>
+      <c r="A441" s="14"/>
+      <c r="B441" s="14"/>
       <c r="D441" s="3" t="str">
         <f>VLOOKUP(C441,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5467,8 +5487,8 @@
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A442" s="15"/>
-      <c r="B442" s="15"/>
+      <c r="A442" s="14"/>
+      <c r="B442" s="14"/>
       <c r="D442" s="3" t="str">
         <f>VLOOKUP(C442,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5479,8 +5499,8 @@
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A443" s="15"/>
-      <c r="B443" s="15"/>
+      <c r="A443" s="14"/>
+      <c r="B443" s="14"/>
       <c r="D443" s="3" t="str">
         <f>VLOOKUP(C443,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5491,8 +5511,8 @@
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A444" s="15"/>
-      <c r="B444" s="15"/>
+      <c r="A444" s="14"/>
+      <c r="B444" s="14"/>
       <c r="D444" s="3" t="str">
         <f>VLOOKUP(C444,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5503,8 +5523,8 @@
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A445" s="15"/>
-      <c r="B445" s="15"/>
+      <c r="A445" s="14"/>
+      <c r="B445" s="14"/>
       <c r="D445" s="3" t="str">
         <f>VLOOKUP(C445,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5515,8 +5535,8 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A446" s="15"/>
-      <c r="B446" s="15"/>
+      <c r="A446" s="14"/>
+      <c r="B446" s="14"/>
       <c r="D446" s="3" t="str">
         <f>VLOOKUP(C446,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5527,8 +5547,8 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A447" s="15"/>
-      <c r="B447" s="15"/>
+      <c r="A447" s="14"/>
+      <c r="B447" s="14"/>
       <c r="D447" s="3" t="str">
         <f>VLOOKUP(C447,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5539,8 +5559,8 @@
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A448" s="15"/>
-      <c r="B448" s="15"/>
+      <c r="A448" s="14"/>
+      <c r="B448" s="14"/>
       <c r="D448" s="3" t="str">
         <f>VLOOKUP(C448,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5551,8 +5571,8 @@
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A449" s="15"/>
-      <c r="B449" s="15"/>
+      <c r="A449" s="14"/>
+      <c r="B449" s="14"/>
       <c r="D449" s="3" t="str">
         <f>VLOOKUP(C449,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5563,8 +5583,8 @@
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A450" s="15"/>
-      <c r="B450" s="15"/>
+      <c r="A450" s="14"/>
+      <c r="B450" s="14"/>
       <c r="D450" s="3" t="str">
         <f>VLOOKUP(C450,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5575,8 +5595,8 @@
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A451" s="15"/>
-      <c r="B451" s="15"/>
+      <c r="A451" s="14"/>
+      <c r="B451" s="14"/>
       <c r="D451" s="3" t="str">
         <f>VLOOKUP(C451,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5587,8 +5607,8 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A452" s="15"/>
-      <c r="B452" s="15"/>
+      <c r="A452" s="14"/>
+      <c r="B452" s="14"/>
       <c r="D452" s="3" t="str">
         <f>VLOOKUP(C452,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5599,7 +5619,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B453" s="15"/>
+      <c r="B453" s="14"/>
       <c r="D453" s="3" t="str">
         <f>VLOOKUP(C453,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5610,7 +5630,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B454" s="15"/>
+      <c r="B454" s="14"/>
       <c r="D454" s="3" t="str">
         <f>VLOOKUP(C454,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5621,7 +5641,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B455" s="15"/>
+      <c r="B455" s="14"/>
       <c r="D455" s="3" t="str">
         <f>VLOOKUP(C455,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5632,7 +5652,7 @@
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B456" s="15"/>
+      <c r="B456" s="14"/>
       <c r="D456" s="3" t="str">
         <f>VLOOKUP(C456,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5643,7 +5663,7 @@
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B457" s="15"/>
+      <c r="B457" s="14"/>
       <c r="D457" s="3" t="str">
         <f>VLOOKUP(C457,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5654,7 +5674,7 @@
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B458" s="15"/>
+      <c r="B458" s="14"/>
       <c r="D458" s="3" t="str">
         <f>VLOOKUP(C458,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5665,7 +5685,7 @@
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B459" s="15"/>
+      <c r="B459" s="14"/>
       <c r="D459" s="3" t="str">
         <f>VLOOKUP(C459,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5676,7 +5696,7 @@
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B460" s="15"/>
+      <c r="B460" s="14"/>
       <c r="D460" s="3" t="str">
         <f>VLOOKUP(C460,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5687,7 +5707,7 @@
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B461" s="15"/>
+      <c r="B461" s="14"/>
       <c r="D461" s="3" t="str">
         <f>VLOOKUP(C461,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5698,7 +5718,7 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B462" s="15"/>
+      <c r="B462" s="14"/>
       <c r="D462" s="3" t="str">
         <f>VLOOKUP(C462,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5709,7 +5729,7 @@
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B463" s="15"/>
+      <c r="B463" s="14"/>
       <c r="D463" s="3" t="str">
         <f>VLOOKUP(C463,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5720,7 +5740,7 @@
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B464" s="15"/>
+      <c r="B464" s="14"/>
       <c r="D464" s="3" t="str">
         <f>VLOOKUP(C464,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5731,7 +5751,7 @@
       </c>
     </row>
     <row r="465" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B465" s="15"/>
+      <c r="B465" s="14"/>
       <c r="D465" s="3" t="str">
         <f>VLOOKUP(C465,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5742,7 +5762,7 @@
       </c>
     </row>
     <row r="466" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B466" s="15"/>
+      <c r="B466" s="14"/>
       <c r="D466" s="3" t="str">
         <f>VLOOKUP(C466,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5753,7 +5773,7 @@
       </c>
     </row>
     <row r="467" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B467" s="15"/>
+      <c r="B467" s="14"/>
       <c r="D467" s="3" t="str">
         <f>VLOOKUP(C467,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5764,7 +5784,7 @@
       </c>
     </row>
     <row r="468" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B468" s="15"/>
+      <c r="B468" s="14"/>
       <c r="D468" s="3" t="str">
         <f>VLOOKUP(C468,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5775,7 +5795,7 @@
       </c>
     </row>
     <row r="469" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B469" s="15"/>
+      <c r="B469" s="14"/>
       <c r="D469" s="3" t="str">
         <f>VLOOKUP(C469,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5786,7 +5806,7 @@
       </c>
     </row>
     <row r="470" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B470" s="15"/>
+      <c r="B470" s="14"/>
       <c r="D470" s="3" t="str">
         <f>VLOOKUP(C470,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5797,7 +5817,7 @@
       </c>
     </row>
     <row r="471" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B471" s="15"/>
+      <c r="B471" s="14"/>
       <c r="D471" s="3" t="str">
         <f>VLOOKUP(C471,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5808,7 +5828,7 @@
       </c>
     </row>
     <row r="472" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B472" s="15"/>
+      <c r="B472" s="14"/>
       <c r="D472" s="3" t="str">
         <f>VLOOKUP(C472,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5819,7 +5839,7 @@
       </c>
     </row>
     <row r="473" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B473" s="15"/>
+      <c r="B473" s="14"/>
       <c r="D473" s="3" t="str">
         <f>VLOOKUP(C473,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5830,7 +5850,7 @@
       </c>
     </row>
     <row r="474" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B474" s="15"/>
+      <c r="B474" s="14"/>
       <c r="D474" s="3" t="str">
         <f>VLOOKUP(C474,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5841,7 +5861,7 @@
       </c>
     </row>
     <row r="475" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B475" s="15"/>
+      <c r="B475" s="14"/>
       <c r="D475" s="3" t="str">
         <f>VLOOKUP(C475,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5852,7 +5872,7 @@
       </c>
     </row>
     <row r="476" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B476" s="15"/>
+      <c r="B476" s="14"/>
       <c r="D476" s="3" t="str">
         <f>VLOOKUP(C476,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5863,7 +5883,7 @@
       </c>
     </row>
     <row r="477" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B477" s="15"/>
+      <c r="B477" s="14"/>
       <c r="D477" s="3" t="str">
         <f>VLOOKUP(C477,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5874,7 +5894,7 @@
       </c>
     </row>
     <row r="478" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B478" s="15"/>
+      <c r="B478" s="14"/>
       <c r="D478" s="3" t="str">
         <f>VLOOKUP(C478,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5885,7 +5905,7 @@
       </c>
     </row>
     <row r="479" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B479" s="15"/>
+      <c r="B479" s="14"/>
       <c r="D479" s="3" t="str">
         <f>VLOOKUP(C479,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5896,7 +5916,7 @@
       </c>
     </row>
     <row r="480" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B480" s="15"/>
+      <c r="B480" s="14"/>
       <c r="D480" s="3" t="str">
         <f>VLOOKUP(C480,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5907,7 +5927,7 @@
       </c>
     </row>
     <row r="481" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B481" s="15"/>
+      <c r="B481" s="14"/>
       <c r="D481" s="3" t="str">
         <f>VLOOKUP(C481,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5918,7 +5938,7 @@
       </c>
     </row>
     <row r="482" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B482" s="15"/>
+      <c r="B482" s="14"/>
       <c r="D482" s="3" t="str">
         <f>VLOOKUP(C482,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5929,7 +5949,7 @@
       </c>
     </row>
     <row r="483" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B483" s="15"/>
+      <c r="B483" s="14"/>
       <c r="D483" s="3" t="str">
         <f>VLOOKUP(C483,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -5940,7 +5960,7 @@
       </c>
     </row>
     <row r="484" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B484" s="15"/>
+      <c r="B484" s="14"/>
       <c r="D484" s="3" t="str">
         <f>VLOOKUP(C484,transformation!$A$2:$E$102,5)</f>
         <v/>
@@ -11124,7 +11144,7 @@
   <dimension ref="A1:T130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11132,6 +11152,7 @@
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="11"/>
+    <col min="6" max="6" width="9.140625" style="18"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
@@ -11155,7 +11176,7 @@
       <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -11196,11 +11217,12 @@
         <f>IF(OR(B2 &lt; 5, B2 &gt; 6), ROUND(B2 * 2,0)/2, ROUND(B2,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E2" s="12" t="str">
+      <c r="D2"/>
+      <c r="E2" t="str">
         <f>IF(D2 &lt;&gt; "", D2, IF($J$2 = "", "", IF($L$2 = "VU-afronding", C2, IF($L$2 = "hele punten", ROUND(B2,0), IF($L$2 = "halve punten", ROUND(B2 * 2,0)/2, ROUND(B2 * 10,0)/10)))))</f>
         <v/>
       </c>
-      <c r="F2" s="16" t="str">
+      <c r="F2" s="18" t="str">
         <f>IF($L$4 &gt; 0, G2 / $L$4 * 100, "")</f>
         <v/>
       </c>
@@ -11212,15 +11234,15 @@
         <f t="shared" ref="H2:H65" si="0">REPT("*",G2)</f>
         <v/>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13">
         <v>5.5</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <v>100</v>
       </c>
       <c r="N2" t="s">
@@ -11247,13 +11269,14 @@
         <f t="shared" ref="C3:C33" si="2">IF(OR(B3 &lt; 5, B3 &gt; 6), ROUND(B3 * 2,0)/2, ROUND(B3,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E3" s="12" t="str">
+      <c r="D3"/>
+      <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="3">IF(D3 &lt;&gt; "", D3, IF($J$2 = "", "", IF($L$2 = "VU-afronding", C3, IF($L$2 = "hele punten", ROUND(B3,0), IF($L$2 = "halve punten", ROUND(B3 * 2,0)/2, ROUND(B3 * 10,0)/10)))))</f>
         <v/>
       </c>
-      <c r="F3" s="16" t="str">
-        <f t="shared" ref="F3:F66" si="4">IF($L$4 &gt; 0, G3 / $L$4 * 100, "")</f>
-        <v/>
+      <c r="F3" s="18" t="e">
+        <f>IF($L$4 &gt; 0, G3 / $L$4 * 100, "")+F2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G3">
         <f>COUNTIF(grades!C:C, A3)</f>
@@ -11267,11 +11290,11 @@
         <v>1</v>
       </c>
       <c r="S3" s="4" t="e">
-        <f t="shared" ref="S3:S66" si="5">IF(($I$2-A3)/($I$2-$J$2) &lt;= 10/(10-$K$2),10-($I$2-A3)/($I$2-$J$2)*(10-$K$2),0)</f>
+        <f t="shared" ref="S3:S66" si="4">IF(($I$2-A3)/($I$2-$J$2) &lt;= 10/(10-$K$2),10-($I$2-A3)/($I$2-$J$2)*(10-$K$2),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T3" s="4" t="e">
-        <f t="shared" ref="T3:T66" si="6">IF(($I$2-A3)/($I$2-$J$2) &lt;= 9/(10-$K$2),10-($I$2-A3)/($I$2-$J$2)*(10-$K$2),1)</f>
+        <f t="shared" ref="T3:T66" si="5">IF(($I$2-A3)/($I$2-$J$2) &lt;= 9/(10-$K$2),10-($I$2-A3)/($I$2-$J$2)*(10-$K$2),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11287,13 +11310,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E4" s="12" t="str">
+      <c r="D4"/>
+      <c r="E4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F4" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F4" s="18" t="e">
+        <f t="shared" ref="F4:F67" si="6">IF($L$4 &gt; 0, G4 / $L$4 * 100, "")+F3</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G4">
         <f>COUNTIF(grades!C:C, A4)</f>
@@ -11314,11 +11338,11 @@
         <v>2</v>
       </c>
       <c r="S4" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T4" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T4" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11334,13 +11358,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E5" s="12" t="str">
+      <c r="D5"/>
+      <c r="E5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F5" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F5" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G5">
         <f>COUNTIF(grades!C:C, A5)</f>
@@ -11361,11 +11386,11 @@
         <v>3</v>
       </c>
       <c r="S5" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11381,13 +11406,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E6" s="12" t="str">
+      <c r="D6"/>
+      <c r="E6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F6" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F6" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G6">
         <f>COUNTIF(grades!C:C, A6)</f>
@@ -11400,7 +11426,7 @@
       <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="16" t="str">
+      <c r="L6" s="15" t="str">
         <f>IF(L4 &gt; 0, ROUND(L5 / L4 * 100, 0), "")</f>
         <v/>
       </c>
@@ -11408,11 +11434,11 @@
         <v>4</v>
       </c>
       <c r="S6" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11428,13 +11454,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E7" s="12" t="str">
+      <c r="D7"/>
+      <c r="E7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F7" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F7" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G7">
         <f>COUNTIF(grades!C:C, A7)</f>
@@ -11446,11 +11473,11 @@
       </c>
       <c r="I7" s="1"/>
       <c r="S7" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11466,13 +11493,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="12" t="str">
+      <c r="D8"/>
+      <c r="E8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F8" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F8" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G8">
         <f>COUNTIF(grades!C:C, A8)</f>
@@ -11489,11 +11517,11 @@
         <v>1</v>
       </c>
       <c r="S8" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11509,13 +11537,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E9" s="12" t="str">
+      <c r="D9"/>
+      <c r="E9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F9" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F9" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G9">
         <f>COUNTIF(grades!C:C, A9)</f>
@@ -11526,11 +11555,11 @@
         <v/>
       </c>
       <c r="S9" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11546,13 +11575,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="12" t="str">
+      <c r="D10"/>
+      <c r="E10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F10" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F10" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G10">
         <f>COUNTIF(grades!C:C, A10)</f>
@@ -11563,11 +11593,11 @@
         <v/>
       </c>
       <c r="S10" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11583,13 +11613,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E11" s="12" t="str">
+      <c r="D11"/>
+      <c r="E11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F11" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F11" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G11">
         <f>COUNTIF(grades!C:C, A11)</f>
@@ -11600,11 +11631,11 @@
         <v/>
       </c>
       <c r="S11" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11620,13 +11651,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="12" t="str">
+      <c r="D12"/>
+      <c r="E12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F12" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F12" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G12">
         <f>COUNTIF(grades!C:C, A12)</f>
@@ -11637,11 +11669,11 @@
         <v/>
       </c>
       <c r="S12" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11657,13 +11689,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="12" t="str">
+      <c r="D13"/>
+      <c r="E13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F13" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G13">
         <f>COUNTIF(grades!C:C, A13)</f>
@@ -11674,11 +11707,11 @@
         <v/>
       </c>
       <c r="S13" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11694,13 +11727,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="12" t="str">
+      <c r="D14"/>
+      <c r="E14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F14" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F14" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G14">
         <f>COUNTIF(grades!C:C, A14)</f>
@@ -11711,11 +11745,11 @@
         <v/>
       </c>
       <c r="S14" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T14" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11731,13 +11765,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="12" t="str">
+      <c r="D15"/>
+      <c r="E15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F15" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F15" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G15">
         <f>COUNTIF(grades!C:C, A15)</f>
@@ -11748,11 +11783,11 @@
         <v/>
       </c>
       <c r="S15" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T15" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11768,13 +11803,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E16" s="12" t="str">
+      <c r="D16"/>
+      <c r="E16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F16" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F16" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G16">
         <f>COUNTIF(grades!C:C, A16)</f>
@@ -11785,11 +11821,11 @@
         <v/>
       </c>
       <c r="S16" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11805,13 +11841,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E17" s="12" t="str">
+      <c r="D17"/>
+      <c r="E17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F17" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F17" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G17">
         <f>COUNTIF(grades!C:C, A17)</f>
@@ -11822,11 +11859,11 @@
         <v/>
       </c>
       <c r="S17" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11842,13 +11879,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="12" t="str">
+      <c r="D18"/>
+      <c r="E18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F18" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F18" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G18">
         <f>COUNTIF(grades!C:C, A18)</f>
@@ -11859,11 +11897,11 @@
         <v/>
       </c>
       <c r="S18" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11879,13 +11917,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="12" t="str">
+      <c r="D19"/>
+      <c r="E19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F19" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F19" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G19">
         <f>COUNTIF(grades!C:C, A19)</f>
@@ -11896,11 +11935,11 @@
         <v/>
       </c>
       <c r="S19" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11916,13 +11955,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="12" t="str">
+      <c r="D20"/>
+      <c r="E20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F20" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F20" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G20">
         <f>COUNTIF(grades!C:C, A20)</f>
@@ -11933,11 +11973,11 @@
         <v/>
       </c>
       <c r="S20" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11953,13 +11993,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="12" t="str">
+      <c r="D21"/>
+      <c r="E21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F21" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F21" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G21">
         <f>COUNTIF(grades!C:C, A21)</f>
@@ -11970,11 +12011,11 @@
         <v/>
       </c>
       <c r="S21" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11990,13 +12031,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="12" t="str">
+      <c r="D22"/>
+      <c r="E22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F22" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F22" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G22">
         <f>COUNTIF(grades!C:C, A22)</f>
@@ -12007,11 +12049,11 @@
         <v/>
       </c>
       <c r="S22" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12027,13 +12069,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="12" t="str">
+      <c r="D23"/>
+      <c r="E23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F23" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F23" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G23">
         <f>COUNTIF(grades!C:C, A23)</f>
@@ -12044,11 +12087,11 @@
         <v/>
       </c>
       <c r="S23" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12064,13 +12107,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="12" t="str">
+      <c r="D24"/>
+      <c r="E24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F24" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F24" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G24">
         <f>COUNTIF(grades!C:C, A24)</f>
@@ -12081,11 +12125,11 @@
         <v/>
       </c>
       <c r="S24" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12101,13 +12145,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="12" t="str">
+      <c r="D25"/>
+      <c r="E25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F25" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F25" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G25">
         <f>COUNTIF(grades!C:C, A25)</f>
@@ -12118,11 +12163,11 @@
         <v/>
       </c>
       <c r="S25" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12138,13 +12183,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="12" t="str">
+      <c r="D26"/>
+      <c r="E26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F26" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F26" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G26">
         <f>COUNTIF(grades!C:C, A26)</f>
@@ -12155,11 +12201,11 @@
         <v/>
       </c>
       <c r="S26" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12175,13 +12221,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="D27"/>
+      <c r="E27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F27" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F27" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G27">
         <f>COUNTIF(grades!C:C, A27)</f>
@@ -12192,11 +12239,11 @@
         <v/>
       </c>
       <c r="S27" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12212,13 +12259,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="12" t="str">
+      <c r="D28"/>
+      <c r="E28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F28" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F28" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G28">
         <f>COUNTIF(grades!C:C, A28)</f>
@@ -12229,11 +12277,11 @@
         <v/>
       </c>
       <c r="S28" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12249,13 +12297,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="12" t="str">
+      <c r="D29"/>
+      <c r="E29" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F29" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F29" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G29">
         <f>COUNTIF(grades!C:C, A29)</f>
@@ -12266,11 +12315,11 @@
         <v/>
       </c>
       <c r="S29" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12286,13 +12335,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="12" t="str">
+      <c r="D30"/>
+      <c r="E30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F30" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F30" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G30">
         <f>COUNTIF(grades!C:C, A30)</f>
@@ -12303,11 +12353,11 @@
         <v/>
       </c>
       <c r="S30" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12323,13 +12373,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="12" t="str">
+      <c r="D31"/>
+      <c r="E31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F31" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F31" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G31">
         <f>COUNTIF(grades!C:C, A31)</f>
@@ -12340,11 +12391,11 @@
         <v/>
       </c>
       <c r="S31" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12360,13 +12411,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="12" t="str">
+      <c r="D32"/>
+      <c r="E32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F32" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F32" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G32">
         <f>COUNTIF(grades!C:C, A32)</f>
@@ -12377,11 +12429,11 @@
         <v/>
       </c>
       <c r="S32" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12397,13 +12449,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="12" t="str">
+      <c r="D33"/>
+      <c r="E33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F33" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F33" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G33">
         <f>COUNTIF(grades!C:C, A33)</f>
@@ -12414,11 +12467,11 @@
         <v/>
       </c>
       <c r="S33" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12434,13 +12487,14 @@
         <f t="shared" ref="C34:C65" si="7">IF(OR(B34 &lt; 5, B34 &gt; 6), ROUND(B34 * 2,0)/2, ROUND(B34,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="12" t="str">
+      <c r="D34"/>
+      <c r="E34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F34" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F34" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G34">
         <f>COUNTIF(grades!C:C, A34)</f>
@@ -12451,11 +12505,11 @@
         <v/>
       </c>
       <c r="S34" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12471,13 +12525,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="12" t="str">
+      <c r="D35"/>
+      <c r="E35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F35" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F35" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G35">
         <f>COUNTIF(grades!C:C, A35)</f>
@@ -12488,11 +12543,11 @@
         <v/>
       </c>
       <c r="S35" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T35" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12508,13 +12563,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="12" t="str">
+      <c r="D36"/>
+      <c r="E36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F36" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F36" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G36">
         <f>COUNTIF(grades!C:C, A36)</f>
@@ -12525,11 +12581,11 @@
         <v/>
       </c>
       <c r="S36" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T36" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12545,13 +12601,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="12" t="str">
+      <c r="D37"/>
+      <c r="E37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F37" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F37" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G37">
         <f>COUNTIF(grades!C:C, A37)</f>
@@ -12562,11 +12619,11 @@
         <v/>
       </c>
       <c r="S37" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T37" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12582,13 +12639,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="12" t="str">
+      <c r="D38"/>
+      <c r="E38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F38" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F38" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G38">
         <f>COUNTIF(grades!C:C, A38)</f>
@@ -12599,11 +12657,11 @@
         <v/>
       </c>
       <c r="S38" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T38" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12619,13 +12677,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="12" t="str">
+      <c r="D39"/>
+      <c r="E39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F39" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F39" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G39">
         <f>COUNTIF(grades!C:C, A39)</f>
@@ -12636,11 +12695,11 @@
         <v/>
       </c>
       <c r="S39" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T39" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12656,13 +12715,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="12" t="str">
+      <c r="D40"/>
+      <c r="E40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F40" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F40" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G40">
         <f>COUNTIF(grades!C:C, A40)</f>
@@ -12673,11 +12733,11 @@
         <v/>
       </c>
       <c r="S40" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T40" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12693,13 +12753,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="12" t="str">
+      <c r="D41"/>
+      <c r="E41" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F41" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F41" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G41">
         <f>COUNTIF(grades!C:C, A41)</f>
@@ -12710,11 +12771,11 @@
         <v/>
       </c>
       <c r="S41" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T41" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12730,13 +12791,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="12" t="str">
+      <c r="D42"/>
+      <c r="E42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F42" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F42" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G42">
         <f>COUNTIF(grades!C:C, A42)</f>
@@ -12747,11 +12809,11 @@
         <v/>
       </c>
       <c r="S42" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T42" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T42" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12767,13 +12829,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="12" t="str">
+      <c r="D43"/>
+      <c r="E43" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F43" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F43" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G43">
         <f>COUNTIF(grades!C:C, A43)</f>
@@ -12784,11 +12847,11 @@
         <v/>
       </c>
       <c r="S43" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T43" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12804,13 +12867,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="12" t="str">
+      <c r="D44"/>
+      <c r="E44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F44" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F44" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G44">
         <f>COUNTIF(grades!C:C, A44)</f>
@@ -12821,11 +12885,11 @@
         <v/>
       </c>
       <c r="S44" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T44" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T44" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12841,13 +12905,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E45" s="12" t="str">
+      <c r="D45"/>
+      <c r="E45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F45" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F45" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G45">
         <f>COUNTIF(grades!C:C, A45)</f>
@@ -12858,11 +12923,11 @@
         <v/>
       </c>
       <c r="S45" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T45" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12878,13 +12943,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E46" s="12" t="str">
+      <c r="D46"/>
+      <c r="E46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F46" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F46" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G46">
         <f>COUNTIF(grades!C:C, A46)</f>
@@ -12895,11 +12961,11 @@
         <v/>
       </c>
       <c r="S46" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T46" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T46" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12915,13 +12981,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E47" s="12" t="str">
+      <c r="D47"/>
+      <c r="E47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F47" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F47" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G47">
         <f>COUNTIF(grades!C:C, A47)</f>
@@ -12932,11 +12999,11 @@
         <v/>
       </c>
       <c r="S47" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T47" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T47" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12952,13 +13019,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E48" s="12" t="str">
+      <c r="D48"/>
+      <c r="E48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F48" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F48" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G48">
         <f>COUNTIF(grades!C:C, A48)</f>
@@ -12969,11 +13037,11 @@
         <v/>
       </c>
       <c r="S48" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T48" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T48" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12989,13 +13057,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="12" t="str">
+      <c r="D49"/>
+      <c r="E49" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F49" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F49" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G49">
         <f>COUNTIF(grades!C:C, A49)</f>
@@ -13006,11 +13075,11 @@
         <v/>
       </c>
       <c r="S49" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T49" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T49" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13026,13 +13095,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="12" t="str">
+      <c r="D50"/>
+      <c r="E50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F50" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F50" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G50">
         <f>COUNTIF(grades!C:C, A50)</f>
@@ -13043,11 +13113,11 @@
         <v/>
       </c>
       <c r="S50" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T50" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T50" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13063,13 +13133,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="12" t="str">
+      <c r="D51"/>
+      <c r="E51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F51" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F51" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G51">
         <f>COUNTIF(grades!C:C, A51)</f>
@@ -13080,11 +13151,11 @@
         <v/>
       </c>
       <c r="S51" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T51" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T51" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13100,13 +13171,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E52" s="12" t="str">
+      <c r="D52"/>
+      <c r="E52" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F52" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F52" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G52">
         <f>COUNTIF(grades!C:C, A52)</f>
@@ -13117,11 +13189,11 @@
         <v/>
       </c>
       <c r="S52" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T52" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T52" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13137,13 +13209,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E53" s="12" t="str">
+      <c r="D53"/>
+      <c r="E53" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F53" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F53" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G53">
         <f>COUNTIF(grades!C:C, A53)</f>
@@ -13154,11 +13227,11 @@
         <v/>
       </c>
       <c r="S53" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T53" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T53" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13174,13 +13247,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E54" s="12" t="str">
+      <c r="D54"/>
+      <c r="E54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F54" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F54" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G54">
         <f>COUNTIF(grades!C:C, A54)</f>
@@ -13191,11 +13265,11 @@
         <v/>
       </c>
       <c r="S54" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T54" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T54" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13211,13 +13285,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E55" s="12" t="str">
+      <c r="D55"/>
+      <c r="E55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F55" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F55" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G55">
         <f>COUNTIF(grades!C:C, A55)</f>
@@ -13228,11 +13303,11 @@
         <v/>
       </c>
       <c r="S55" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T55" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T55" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13248,13 +13323,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E56" s="12" t="str">
+      <c r="D56"/>
+      <c r="E56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F56" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F56" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G56">
         <f>COUNTIF(grades!C:C, A56)</f>
@@ -13265,11 +13341,11 @@
         <v/>
       </c>
       <c r="S56" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T56" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T56" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13285,13 +13361,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E57" s="12" t="str">
+      <c r="D57"/>
+      <c r="E57" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F57" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F57" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G57">
         <f>COUNTIF(grades!C:C, A57)</f>
@@ -13302,11 +13379,11 @@
         <v/>
       </c>
       <c r="S57" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T57" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T57" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13322,13 +13399,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E58" s="12" t="str">
+      <c r="D58"/>
+      <c r="E58" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F58" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F58" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G58">
         <f>COUNTIF(grades!C:C, A58)</f>
@@ -13339,11 +13417,11 @@
         <v/>
       </c>
       <c r="S58" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T58" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T58" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13359,13 +13437,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E59" s="12" t="str">
+      <c r="D59"/>
+      <c r="E59" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F59" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F59" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G59">
         <f>COUNTIF(grades!C:C, A59)</f>
@@ -13376,11 +13455,11 @@
         <v/>
       </c>
       <c r="S59" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T59" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T59" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13396,13 +13475,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E60" s="12" t="str">
+      <c r="D60"/>
+      <c r="E60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F60" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F60" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G60">
         <f>COUNTIF(grades!C:C, A60)</f>
@@ -13413,11 +13493,11 @@
         <v/>
       </c>
       <c r="S60" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T60" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T60" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13433,13 +13513,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E61" s="12" t="str">
+      <c r="D61"/>
+      <c r="E61" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F61" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F61" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G61">
         <f>COUNTIF(grades!C:C, A61)</f>
@@ -13450,11 +13531,11 @@
         <v/>
       </c>
       <c r="S61" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T61" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T61" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13470,13 +13551,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E62" s="12" t="str">
+      <c r="D62"/>
+      <c r="E62" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F62" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F62" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G62">
         <f>COUNTIF(grades!C:C, A62)</f>
@@ -13487,11 +13569,11 @@
         <v/>
       </c>
       <c r="S62" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T62" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T62" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13507,13 +13589,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E63" s="12" t="str">
+      <c r="D63"/>
+      <c r="E63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F63" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F63" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G63">
         <f>COUNTIF(grades!C:C, A63)</f>
@@ -13524,11 +13607,11 @@
         <v/>
       </c>
       <c r="S63" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T63" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T63" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13544,13 +13627,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E64" s="12" t="str">
+      <c r="D64"/>
+      <c r="E64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F64" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F64" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G64">
         <f>COUNTIF(grades!C:C, A64)</f>
@@ -13561,11 +13645,11 @@
         <v/>
       </c>
       <c r="S64" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T64" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T64" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13581,13 +13665,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E65" s="12" t="str">
+      <c r="D65"/>
+      <c r="E65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F65" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F65" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G65">
         <f>COUNTIF(grades!C:C, A65)</f>
@@ -13598,11 +13683,11 @@
         <v/>
       </c>
       <c r="S65" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T65" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T65" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13618,13 +13703,14 @@
         <f t="shared" ref="C66:C97" si="8">IF(OR(B66 &lt; 5, B66 &gt; 6), ROUND(B66 * 2,0)/2, ROUND(B66,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E66" s="12" t="str">
+      <c r="D66"/>
+      <c r="E66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F66" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F66" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G66">
         <f>COUNTIF(grades!C:C, A66)</f>
@@ -13635,11 +13721,11 @@
         <v/>
       </c>
       <c r="S66" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T66" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T66" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13655,13 +13741,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E67" s="12" t="str">
+      <c r="D67"/>
+      <c r="E67" t="str">
         <f t="shared" ref="E67:E102" si="11">IF(D67 &lt;&gt; "", D67, IF($J$2 = "", "", IF($L$2 = "VU-afronding", C67, IF($L$2 = "hele punten", ROUND(B67,0), IF($L$2 = "halve punten", ROUND(B67 * 2,0)/2, ROUND(B67 * 10,0)/10)))))</f>
         <v/>
       </c>
-      <c r="F67" s="16" t="str">
-        <f t="shared" ref="F67:F102" si="12">IF($L$4 &gt; 0, G67 / $L$4 * 100, "")</f>
-        <v/>
+      <c r="F67" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G67">
         <f>COUNTIF(grades!C:C, A67)</f>
@@ -13672,11 +13759,11 @@
         <v/>
       </c>
       <c r="S67" s="4" t="e">
-        <f t="shared" ref="S67:S102" si="13">IF(($I$2-A67)/($I$2-$J$2) &lt;= 10/(10-$K$2),10-($I$2-A67)/($I$2-$J$2)*(10-$K$2),0)</f>
+        <f t="shared" ref="S67:S102" si="12">IF(($I$2-A67)/($I$2-$J$2) &lt;= 10/(10-$K$2),10-($I$2-A67)/($I$2-$J$2)*(10-$K$2),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T67" s="4" t="e">
-        <f t="shared" ref="T67:T102" si="14">IF(($I$2-A67)/($I$2-$J$2) &lt;= 9/(10-$K$2),10-($I$2-A67)/($I$2-$J$2)*(10-$K$2),1)</f>
+        <f t="shared" ref="T67:T102" si="13">IF(($I$2-A67)/($I$2-$J$2) &lt;= 9/(10-$K$2),10-($I$2-A67)/($I$2-$J$2)*(10-$K$2),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13692,13 +13779,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E68" s="12" t="str">
+      <c r="D68"/>
+      <c r="E68" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F68" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F68" s="18" t="e">
+        <f t="shared" ref="F68:F130" si="14">IF($L$4 &gt; 0, G68 / $L$4 * 100, "")+F67</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G68">
         <f>COUNTIF(grades!C:C, A68)</f>
@@ -13709,11 +13797,11 @@
         <v/>
       </c>
       <c r="S68" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T68" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T68" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13729,13 +13817,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E69" s="12" t="str">
+      <c r="D69"/>
+      <c r="E69" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F69" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F69" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G69">
         <f>COUNTIF(grades!C:C, A69)</f>
@@ -13746,11 +13835,11 @@
         <v/>
       </c>
       <c r="S69" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T69" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T69" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13766,13 +13855,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E70" s="12" t="str">
+      <c r="D70"/>
+      <c r="E70" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F70" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F70" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G70">
         <f>COUNTIF(grades!C:C, A70)</f>
@@ -13783,11 +13873,11 @@
         <v/>
       </c>
       <c r="S70" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T70" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T70" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13803,13 +13893,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E71" s="12" t="str">
+      <c r="D71"/>
+      <c r="E71" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F71" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F71" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G71">
         <f>COUNTIF(grades!C:C, A71)</f>
@@ -13820,11 +13911,11 @@
         <v/>
       </c>
       <c r="S71" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T71" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T71" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13840,13 +13931,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E72" s="12" t="str">
+      <c r="D72"/>
+      <c r="E72" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F72" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F72" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G72">
         <f>COUNTIF(grades!C:C, A72)</f>
@@ -13857,11 +13949,11 @@
         <v/>
       </c>
       <c r="S72" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T72" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T72" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13877,13 +13969,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E73" s="12" t="str">
+      <c r="D73"/>
+      <c r="E73" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F73" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F73" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G73">
         <f>COUNTIF(grades!C:C, A73)</f>
@@ -13894,11 +13987,11 @@
         <v/>
       </c>
       <c r="S73" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T73" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T73" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13914,13 +14007,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E74" s="12" t="str">
+      <c r="D74"/>
+      <c r="E74" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F74" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F74" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G74">
         <f>COUNTIF(grades!C:C, A74)</f>
@@ -13931,11 +14025,11 @@
         <v/>
       </c>
       <c r="S74" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T74" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T74" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13951,13 +14045,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="12" t="str">
+      <c r="D75"/>
+      <c r="E75" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F75" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F75" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G75">
         <f>COUNTIF(grades!C:C, A75)</f>
@@ -13968,11 +14063,11 @@
         <v/>
       </c>
       <c r="S75" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T75" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T75" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13988,13 +14083,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E76" s="12" t="str">
+      <c r="D76"/>
+      <c r="E76" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F76" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F76" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G76">
         <f>COUNTIF(grades!C:C, A76)</f>
@@ -14005,11 +14101,11 @@
         <v/>
       </c>
       <c r="S76" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T76" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T76" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14025,13 +14121,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="12" t="str">
+      <c r="D77"/>
+      <c r="E77" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F77" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F77" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G77">
         <f>COUNTIF(grades!C:C, A77)</f>
@@ -14042,11 +14139,11 @@
         <v/>
       </c>
       <c r="S77" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T77" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T77" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14062,13 +14159,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E78" s="12" t="str">
+      <c r="D78"/>
+      <c r="E78" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F78" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F78" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G78">
         <f>COUNTIF(grades!C:C, A78)</f>
@@ -14079,11 +14177,11 @@
         <v/>
       </c>
       <c r="S78" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T78" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T78" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14099,13 +14197,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E79" s="12" t="str">
+      <c r="D79"/>
+      <c r="E79" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F79" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F79" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G79">
         <f>COUNTIF(grades!C:C, A79)</f>
@@ -14116,11 +14215,11 @@
         <v/>
       </c>
       <c r="S79" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T79" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T79" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14136,13 +14235,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E80" s="12" t="str">
+      <c r="D80"/>
+      <c r="E80" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F80" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F80" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G80">
         <f>COUNTIF(grades!C:C, A80)</f>
@@ -14153,11 +14253,11 @@
         <v/>
       </c>
       <c r="S80" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T80" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T80" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14173,13 +14273,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E81" s="12" t="str">
+      <c r="D81"/>
+      <c r="E81" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F81" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F81" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G81">
         <f>COUNTIF(grades!C:C, A81)</f>
@@ -14190,11 +14291,11 @@
         <v/>
       </c>
       <c r="S81" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T81" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T81" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14210,13 +14311,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E82" s="12" t="str">
+      <c r="D82"/>
+      <c r="E82" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F82" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F82" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G82">
         <f>COUNTIF(grades!C:C, A82)</f>
@@ -14227,11 +14329,11 @@
         <v/>
       </c>
       <c r="S82" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T82" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T82" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14247,13 +14349,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E83" s="12" t="str">
+      <c r="D83"/>
+      <c r="E83" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F83" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F83" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G83">
         <f>COUNTIF(grades!C:C, A83)</f>
@@ -14264,11 +14367,11 @@
         <v/>
       </c>
       <c r="S83" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T83" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T83" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14284,13 +14387,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E84" s="12" t="str">
+      <c r="D84"/>
+      <c r="E84" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F84" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F84" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G84">
         <f>COUNTIF(grades!C:C, A84)</f>
@@ -14301,11 +14405,11 @@
         <v/>
       </c>
       <c r="S84" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T84" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T84" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14321,13 +14425,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E85" s="12" t="str">
+      <c r="D85"/>
+      <c r="E85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F85" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F85" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G85">
         <f>COUNTIF(grades!C:C, A85)</f>
@@ -14338,11 +14443,11 @@
         <v/>
       </c>
       <c r="S85" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T85" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T85" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14358,13 +14463,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E86" s="12" t="str">
+      <c r="D86"/>
+      <c r="E86" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F86" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F86" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G86">
         <f>COUNTIF(grades!C:C, A86)</f>
@@ -14375,11 +14481,11 @@
         <v/>
       </c>
       <c r="S86" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T86" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T86" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14395,13 +14501,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E87" s="12" t="str">
+      <c r="D87"/>
+      <c r="E87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F87" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F87" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G87">
         <f>COUNTIF(grades!C:C, A87)</f>
@@ -14412,11 +14519,11 @@
         <v/>
       </c>
       <c r="S87" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T87" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T87" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14432,13 +14539,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E88" s="12" t="str">
+      <c r="D88"/>
+      <c r="E88" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F88" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F88" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G88">
         <f>COUNTIF(grades!C:C, A88)</f>
@@ -14449,11 +14557,11 @@
         <v/>
       </c>
       <c r="S88" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T88" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T88" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14469,13 +14577,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E89" s="12" t="str">
+      <c r="D89"/>
+      <c r="E89" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F89" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F89" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G89">
         <f>COUNTIF(grades!C:C, A89)</f>
@@ -14486,11 +14595,11 @@
         <v/>
       </c>
       <c r="S89" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T89" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T89" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14506,13 +14615,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E90" s="12" t="str">
+      <c r="D90"/>
+      <c r="E90" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F90" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F90" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G90">
         <f>COUNTIF(grades!C:C, A90)</f>
@@ -14523,11 +14633,11 @@
         <v/>
       </c>
       <c r="S90" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T90" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T90" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14543,13 +14653,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E91" s="12" t="str">
+      <c r="D91"/>
+      <c r="E91" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F91" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F91" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G91">
         <f>COUNTIF(grades!C:C, A91)</f>
@@ -14560,11 +14671,11 @@
         <v/>
       </c>
       <c r="S91" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T91" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T91" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14580,13 +14691,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E92" s="12" t="str">
+      <c r="D92"/>
+      <c r="E92" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F92" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F92" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G92">
         <f>COUNTIF(grades!C:C, A92)</f>
@@ -14597,11 +14709,11 @@
         <v/>
       </c>
       <c r="S92" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T92" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T92" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14617,13 +14729,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E93" s="12" t="str">
+      <c r="D93"/>
+      <c r="E93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F93" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F93" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G93">
         <f>COUNTIF(grades!C:C, A93)</f>
@@ -14634,11 +14747,11 @@
         <v/>
       </c>
       <c r="S93" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T93" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T93" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14654,13 +14767,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E94" s="12" t="str">
+      <c r="D94"/>
+      <c r="E94" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F94" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F94" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G94">
         <f>COUNTIF(grades!C:C, A94)</f>
@@ -14671,11 +14785,11 @@
         <v/>
       </c>
       <c r="S94" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T94" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T94" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14691,13 +14805,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E95" s="12" t="str">
+      <c r="D95"/>
+      <c r="E95" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F95" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F95" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G95">
         <f>COUNTIF(grades!C:C, A95)</f>
@@ -14708,11 +14823,11 @@
         <v/>
       </c>
       <c r="S95" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T95" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T95" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14728,13 +14843,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E96" s="12" t="str">
+      <c r="D96"/>
+      <c r="E96" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F96" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F96" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G96">
         <f>COUNTIF(grades!C:C, A96)</f>
@@ -14745,11 +14861,11 @@
         <v/>
       </c>
       <c r="S96" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T96" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T96" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14765,13 +14881,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E97" s="12" t="str">
+      <c r="D97"/>
+      <c r="E97" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F97" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F97" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G97">
         <f>COUNTIF(grades!C:C, A97)</f>
@@ -14782,11 +14899,11 @@
         <v/>
       </c>
       <c r="S97" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T97" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T97" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14802,13 +14919,14 @@
         <f>IF(OR(B98 &lt; 5, B98 &gt; 6), ROUND(B98 * 2,0)/2, ROUND(B98,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E98" s="12" t="str">
+      <c r="D98"/>
+      <c r="E98" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F98" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F98" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G98">
         <f>COUNTIF(grades!C:C, A98)</f>
@@ -14819,11 +14937,11 @@
         <v/>
       </c>
       <c r="S98" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T98" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T98" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14839,13 +14957,14 @@
         <f>IF(OR(B99 &lt; 5, B99 &gt; 6), ROUND(B99 * 2,0)/2, ROUND(B99,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E99" s="12" t="str">
+      <c r="D99"/>
+      <c r="E99" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F99" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F99" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G99">
         <f>COUNTIF(grades!C:C, A99)</f>
@@ -14856,11 +14975,11 @@
         <v/>
       </c>
       <c r="S99" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T99" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T99" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14876,13 +14995,14 @@
         <f>IF(OR(B100 &lt; 5, B100 &gt; 6), ROUND(B100 * 2,0)/2, ROUND(B100,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E100" s="12" t="str">
+      <c r="D100"/>
+      <c r="E100" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F100" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F100" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G100">
         <f>COUNTIF(grades!C:C, A100)</f>
@@ -14893,11 +15013,11 @@
         <v/>
       </c>
       <c r="S100" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T100" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T100" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14913,13 +15033,14 @@
         <f>IF(OR(B101 &lt; 5, B101 &gt; 6), ROUND(B101 * 2,0)/2, ROUND(B101,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E101" s="12" t="str">
+      <c r="D101"/>
+      <c r="E101" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F101" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F101" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G101">
         <f>COUNTIF(grades!C:C, A101)</f>
@@ -14930,11 +15051,11 @@
         <v/>
       </c>
       <c r="S101" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T101" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T101" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14950,13 +15071,14 @@
         <f>IF(OR(B102 &lt; 5, B102 &gt; 6), ROUND(B102 * 2,0)/2, ROUND(B102,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E102" s="12" t="str">
+      <c r="D102"/>
+      <c r="E102" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F102" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F102" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G102">
         <f>COUNTIF(grades!C:C, A102)</f>
@@ -14967,11 +15089,11 @@
         <v/>
       </c>
       <c r="S102" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T102" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T102" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14987,13 +15109,14 @@
         <f t="shared" ref="C103:C130" si="16">IF(OR(B103 &lt; 5, B103 &gt; 6), ROUND(B103 * 2,0)/2, ROUND(B103,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E103" s="12" t="str">
+      <c r="D103"/>
+      <c r="E103" t="str">
         <f t="shared" ref="E103:E130" si="17">IF(D103 &lt;&gt; "", D103, IF($J$2 = "", "", IF($L$2 = "VU-afronding", C103, IF($L$2 = "hele punten", ROUND(B103,0), IF($L$2 = "halve punten", ROUND(B103 * 2,0)/2, ROUND(B103 * 10,0)/10)))))</f>
         <v/>
       </c>
-      <c r="F103" s="16" t="str">
-        <f t="shared" ref="F103:F130" si="18">IF($L$4 &gt; 0, G103 / $L$4 * 100, "")</f>
-        <v/>
+      <c r="F103" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G103">
         <f>COUNTIF(grades!C:C, A103)</f>
@@ -15012,13 +15135,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E104" s="12" t="str">
+      <c r="D104"/>
+      <c r="E104" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F104" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F104" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G104">
         <f>COUNTIF(grades!C:C, A104)</f>
@@ -15037,13 +15161,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E105" s="12" t="str">
+      <c r="D105"/>
+      <c r="E105" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F105" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F105" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G105">
         <f>COUNTIF(grades!C:C, A105)</f>
@@ -15062,13 +15187,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E106" s="12" t="str">
+      <c r="D106"/>
+      <c r="E106" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F106" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F106" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G106">
         <f>COUNTIF(grades!C:C, A106)</f>
@@ -15087,13 +15213,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E107" s="12" t="str">
+      <c r="D107"/>
+      <c r="E107" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F107" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F107" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G107">
         <f>COUNTIF(grades!C:C, A107)</f>
@@ -15112,13 +15239,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E108" s="12" t="str">
+      <c r="D108"/>
+      <c r="E108" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F108" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F108" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G108">
         <f>COUNTIF(grades!C:C, A108)</f>
@@ -15137,13 +15265,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E109" s="12" t="str">
+      <c r="D109"/>
+      <c r="E109" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F109" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F109" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G109">
         <f>COUNTIF(grades!C:C, A109)</f>
@@ -15162,13 +15291,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E110" s="12" t="str">
+      <c r="D110"/>
+      <c r="E110" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F110" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F110" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G110">
         <f>COUNTIF(grades!C:C, A110)</f>
@@ -15187,13 +15317,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E111" s="12" t="str">
+      <c r="D111"/>
+      <c r="E111" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F111" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F111" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G111">
         <f>COUNTIF(grades!C:C, A111)</f>
@@ -15212,13 +15343,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E112" s="12" t="str">
+      <c r="D112"/>
+      <c r="E112" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F112" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F112" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G112">
         <f>COUNTIF(grades!C:C, A112)</f>
@@ -15237,13 +15369,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E113" s="12" t="str">
+      <c r="D113"/>
+      <c r="E113" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F113" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F113" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G113">
         <f>COUNTIF(grades!C:C, A113)</f>
@@ -15262,13 +15395,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E114" s="12" t="str">
+      <c r="D114"/>
+      <c r="E114" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F114" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F114" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G114">
         <f>COUNTIF(grades!C:C, A114)</f>
@@ -15287,13 +15421,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E115" s="12" t="str">
+      <c r="D115"/>
+      <c r="E115" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F115" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F115" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G115">
         <f>COUNTIF(grades!C:C, A115)</f>
@@ -15312,13 +15447,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E116" s="12" t="str">
+      <c r="D116"/>
+      <c r="E116" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F116" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F116" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G116">
         <f>COUNTIF(grades!C:C, A116)</f>
@@ -15337,13 +15473,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E117" s="12" t="str">
+      <c r="D117"/>
+      <c r="E117" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F117" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F117" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G117">
         <f>COUNTIF(grades!C:C, A117)</f>
@@ -15362,13 +15499,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E118" s="12" t="str">
+      <c r="D118"/>
+      <c r="E118" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F118" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F118" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G118">
         <f>COUNTIF(grades!C:C, A118)</f>
@@ -15387,13 +15525,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E119" s="12" t="str">
+      <c r="D119"/>
+      <c r="E119" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F119" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F119" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G119">
         <f>COUNTIF(grades!C:C, A119)</f>
@@ -15412,13 +15551,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E120" s="12" t="str">
+      <c r="D120"/>
+      <c r="E120" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F120" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F120" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G120">
         <f>COUNTIF(grades!C:C, A120)</f>
@@ -15437,13 +15577,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E121" s="12" t="str">
+      <c r="D121"/>
+      <c r="E121" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F121" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F121" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G121">
         <f>COUNTIF(grades!C:C, A121)</f>
@@ -15462,13 +15603,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E122" s="12" t="str">
+      <c r="D122"/>
+      <c r="E122" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F122" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F122" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G122">
         <f>COUNTIF(grades!C:C, A122)</f>
@@ -15487,13 +15629,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E123" s="12" t="str">
+      <c r="D123"/>
+      <c r="E123" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F123" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F123" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G123">
         <f>COUNTIF(grades!C:C, A123)</f>
@@ -15512,13 +15655,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E124" s="12" t="str">
+      <c r="D124"/>
+      <c r="E124" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F124" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F124" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G124">
         <f>COUNTIF(grades!C:C, A124)</f>
@@ -15537,13 +15681,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E125" s="12" t="str">
+      <c r="D125"/>
+      <c r="E125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F125" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F125" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G125">
         <f>COUNTIF(grades!C:C, A125)</f>
@@ -15562,13 +15707,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E126" s="12" t="str">
+      <c r="D126"/>
+      <c r="E126" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F126" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F126" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G126">
         <f>COUNTIF(grades!C:C, A126)</f>
@@ -15587,13 +15733,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E127" s="12" t="str">
+      <c r="D127"/>
+      <c r="E127" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F127" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F127" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G127">
         <f>COUNTIF(grades!C:C, A127)</f>
@@ -15612,13 +15759,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E128" s="12" t="str">
+      <c r="D128"/>
+      <c r="E128" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F128" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F128" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G128">
         <f>COUNTIF(grades!C:C, A128)</f>
@@ -15637,13 +15785,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E129" s="12" t="str">
+      <c r="D129"/>
+      <c r="E129" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F129" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F129" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G129">
         <f>COUNTIF(grades!C:C, A129)</f>
@@ -15662,13 +15811,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E130" s="12" t="str">
+      <c r="D130"/>
+      <c r="E130" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F130" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F130" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G130">
         <f>COUNTIF(grades!C:C, A130)</f>
@@ -15677,6 +15827,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A130">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$A2&gt;$I$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:G130">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$A2&gt;$I$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C130">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A2&gt;$I$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>$N$2:$N$10</formula1>
